--- a/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
+++ b/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$154</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$153</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +29,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="E120" authorId="0">
+    <comment ref="E119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E133" authorId="0">
+    <comment ref="E132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="267">
   <si>
     <t xml:space="preserve">TEST BLOCK</t>
   </si>
@@ -301,25 +301,10 @@
     <t xml:space="preserve">name // name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/components/component/subcomponents/subcomponent/config/name - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/components/component/subcomponents/subcomponent/name</t>
-    </r>
+    <t xml:space="preserve">hw_subcomponent_name.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/components/component/subcomponents/subcomponent/config/name - /components/component/subcomponents/subcomponent/name</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/sbarguil/Testing-framework/issues/75</t>
@@ -415,13 +400,13 @@
     <t xml:space="preserve">/interfaces/interface/oc-tun:tunnel/oc-tun:config/oc-tun:ttl</t>
   </si>
   <si>
-    <t xml:space="preserve">/interfaces/interface/oc-tun:tunnel/oc-tun:ipv4/oc-tun:addresses/oc-tun:address/oc-tun:config/oc-tun:ip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se pŕueba implicitamente con if_gre_ip_prefix_length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/interfaces/interface/oc-tun:tunnel/oc-tun:ipv4/oc-tun:addresses/oc-tun:address/oc-tun:config/oc-tun:prefix-length</t>
+    <t xml:space="preserve">oc-tun:prefix-length // oc-tun:ip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_gre_ip_prefix_length.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/interfaces/interface/oc-tun:tunnel/oc-tun:ipv4/oc-tun:addresses/oc-tun:address/oc-tun:config/oc-tun:ip - /interfaces/interface/oc-tun:tunnel/oc-tun:ipv4/oc-tun:addresses/oc-tun:address/oc-tun:config/oc-tun:prefix-length</t>
   </si>
   <si>
     <t xml:space="preserve">/interfaces/interface/oc-tun:tunnel/oc-tun:ipv4/oc-tun:config/oc-tun:mtu</t>
@@ -995,7 +980,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1124,7 +1109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1183,6 +1168,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1315,8 +1308,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:L154" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:L154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:L153" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:L153"/>
   <tableColumns count="12">
     <tableColumn id="1" name="TEST BLOCK"/>
     <tableColumn id="2" name=" TEST SUB-BLOCK"/>
@@ -1341,8 +1334,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2934,22 +2927,21 @@
         <f aca="false">IFERROR(IF(SEARCH("state/",G40),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E40" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A40,"_",B40,"_",IFERROR(MID(C40,FIND(":",C40)+1,LEN(C40)-FIND(":",C40)),C40),".","xml"),"-","_")</f>
-        <v>hw_subcomponent_name // name.xml</v>
+      <c r="E40" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="F40" s="8" t="str">
         <f aca="false">CONCATENATE(A40,"_",B40,".yml")</f>
         <v>hw_subcomponent.yml</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>16</v>
@@ -2977,20 +2969,20 @@
         <v>STATE</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F41" s="8" t="str">
         <f aca="false">CONCATENATE(A41,"_",B41,".yml")</f>
         <v>hw_subcomponent.yml</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>16</v>
@@ -3004,7 +2996,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
@@ -3026,7 +3018,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>15</v>
@@ -3044,7 +3036,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
@@ -3066,7 +3058,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>15</v>
@@ -3084,7 +3076,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
@@ -3106,13 +3098,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>16</v>
@@ -3126,7 +3118,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>13</v>
@@ -3148,7 +3140,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>15</v>
@@ -3166,7 +3158,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>13</v>
@@ -3188,13 +3180,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>17</v>
@@ -3208,7 +3200,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>13</v>
@@ -3230,13 +3222,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>16</v>
@@ -3250,7 +3242,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>13</v>
@@ -3272,13 +3264,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>16</v>
@@ -3292,10 +3284,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G49,"/",REPT(" ","500")),500))</f>
@@ -3314,7 +3306,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>15</v>
@@ -3332,10 +3324,10 @@
     </row>
     <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G50,"/",REPT(" ","500")),500))</f>
@@ -3354,7 +3346,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>15</v>
@@ -3372,10 +3364,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G51,"/",REPT(" ","500")),500))</f>
@@ -3394,7 +3386,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>15</v>
@@ -3412,10 +3404,10 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G52,"/",REPT(" ","500")),500))</f>
@@ -3434,13 +3426,13 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>16</v>
@@ -3454,10 +3446,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G53,"/",REPT(" ","500")),500))</f>
@@ -3468,14 +3460,14 @@
         <v>STATE</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="8" t="str">
         <f aca="false">CONCATENATE(A53,"_",B53,".yml")</f>
         <v>if_ethernet.yml</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>15</v>
@@ -3493,10 +3485,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G54,"/",REPT(" ","500")),500))</f>
@@ -3507,20 +3499,20 @@
         <v>CONFIG</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F54" s="8" t="str">
         <f aca="false">CONCATENATE(A54,"_",B54,".yml")</f>
         <v>if_lag.yml</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>16</v>
@@ -3534,10 +3526,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C55" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G55,"/",REPT(" ","500")),500))</f>
@@ -3556,13 +3548,13 @@
         <v>if_lag.yml</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>16</v>
@@ -3576,10 +3568,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G56,"/",REPT(" ","500")),500))</f>
@@ -3598,13 +3590,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>16</v>
@@ -3618,10 +3610,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G57,"/",REPT(" ","500")),500))</f>
@@ -3640,13 +3632,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>16</v>
@@ -3660,10 +3652,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G58,"/",REPT(" ","500")),500))</f>
@@ -3682,13 +3674,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>16</v>
@@ -3700,37 +3692,35 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G59,"/",REPT(" ","500")),500))</f>
-        <v>oc-tun:ip</v>
+        <v>99</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D59" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G59),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E59" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A59,"_",B59,"_",IFERROR(MID(C59,FIND(":",C59)+1,LEN(C59)-FIND(":",C59)),C59),".","xml"),"-","_")</f>
-        <v>if_gre_ip.xml</v>
+      <c r="E59" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="F59" s="8" t="str">
         <f aca="false">CONCATENATE(A59,"_",B59,".yml")</f>
         <v>if_gre.yml</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="11" t="s">
-        <v>104</v>
+      <c r="I59" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>16</v>
@@ -3744,14 +3734,14 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C60" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G60,"/",REPT(" ","500")),500))</f>
-        <v>oc-tun:prefix-length</v>
+        <v>oc-tun:mtu</v>
       </c>
       <c r="D60" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G60),"STATE","CONFIG"),"CONFIG")</f>
@@ -3759,20 +3749,20 @@
       </c>
       <c r="E60" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A60,"_",B60,"_",IFERROR(MID(C60,FIND(":",C60)+1,LEN(C60)-FIND(":",C60)),C60),".","xml"),"-","_")</f>
-        <v>if_gre_prefix_length.xml</v>
+        <v>if_gre_mtu.xml</v>
       </c>
       <c r="F60" s="8" t="str">
         <f aca="false">CONCATENATE(A60,"_",B60,".yml")</f>
         <v>if_gre.yml</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>16</v>
@@ -3784,38 +3774,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C61" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G61,"/",REPT(" ","500")),500))</f>
-        <v>oc-tun:mtu</v>
+        <v>admin-status</v>
       </c>
       <c r="D61" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G61),"STATE","CONFIG"),"CONFIG")</f>
-        <v>CONFIG</v>
+        <v>STATE</v>
       </c>
       <c r="E61" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A61,"_",B61,"_",IFERROR(MID(C61,FIND(":",C61)+1,LEN(C61)-FIND(":",C61)),C61),".","xml"),"-","_")</f>
-        <v>if_gre_mtu.xml</v>
+        <v>if_status_admin_status.xml</v>
       </c>
       <c r="F61" s="8" t="str">
         <f aca="false">CONCATENATE(A61,"_",B61,".yml")</f>
-        <v>if_gre.yml</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>106</v>
+        <v>if_status.yml</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="I61" s="11"/>
       <c r="J61" s="12" t="s">
         <v>16</v>
       </c>
@@ -3828,14 +3816,14 @@
     </row>
     <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G62,"/",REPT(" ","500")),500))</f>
-        <v>admin-status</v>
+        <v>enabled</v>
       </c>
       <c r="D62" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G62),"STATE","CONFIG"),"CONFIG")</f>
@@ -3843,14 +3831,14 @@
       </c>
       <c r="E62" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A62,"_",B62,"_",IFERROR(MID(C62,FIND(":",C62)+1,LEN(C62)-FIND(":",C62)),C62),".","xml"),"-","_")</f>
-        <v>if_status_admin_status.xml</v>
+        <v>if_status_enabled.xml</v>
       </c>
       <c r="F62" s="8" t="str">
         <f aca="false">CONCATENATE(A62,"_",B62,".yml")</f>
         <v>if_status.yml</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>15</v>
@@ -3868,14 +3856,14 @@
     </row>
     <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C63" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G63,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
+        <v>name</v>
       </c>
       <c r="D63" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G63),"STATE","CONFIG"),"CONFIG")</f>
@@ -3883,14 +3871,14 @@
       </c>
       <c r="E63" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A63,"_",B63,"_",IFERROR(MID(C63,FIND(":",C63)+1,LEN(C63)-FIND(":",C63)),C63),".","xml"),"-","_")</f>
-        <v>if_status_enabled.xml</v>
+        <v>if_status_name.xml</v>
       </c>
       <c r="F63" s="8" t="str">
         <f aca="false">CONCATENATE(A63,"_",B63,".yml")</f>
         <v>if_status.yml</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>15</v>
@@ -3908,14 +3896,14 @@
     </row>
     <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C64" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G64,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
+        <v>oper-status</v>
       </c>
       <c r="D64" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G64),"STATE","CONFIG"),"CONFIG")</f>
@@ -3923,14 +3911,14 @@
       </c>
       <c r="E64" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A64,"_",B64,"_",IFERROR(MID(C64,FIND(":",C64)+1,LEN(C64)-FIND(":",C64)),C64),".","xml"),"-","_")</f>
-        <v>if_status_name.xml</v>
+        <v>if_status_oper_status.xml</v>
       </c>
       <c r="F64" s="8" t="str">
         <f aca="false">CONCATENATE(A64,"_",B64,".yml")</f>
         <v>if_status.yml</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>15</v>
@@ -3948,14 +3936,14 @@
     </row>
     <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C65" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G65,"/",REPT(" ","500")),500))</f>
-        <v>oper-status</v>
+        <v>type</v>
       </c>
       <c r="D65" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G65),"STATE","CONFIG"),"CONFIG")</f>
@@ -3963,14 +3951,14 @@
       </c>
       <c r="E65" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A65,"_",B65,"_",IFERROR(MID(C65,FIND(":",C65)+1,LEN(C65)-FIND(":",C65)),C65),".","xml"),"-","_")</f>
-        <v>if_status_oper_status.xml</v>
+        <v>if_subif_type.xml</v>
       </c>
       <c r="F65" s="8" t="str">
         <f aca="false">CONCATENATE(A65,"_",B65,".yml")</f>
-        <v>if_status.yml</v>
+        <v>if_subif.yml</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>15</v>
@@ -3988,29 +3976,29 @@
     </row>
     <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C66" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G66,"/",REPT(" ","500")),500))</f>
-        <v>type</v>
+        <v>description</v>
       </c>
       <c r="D66" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G66),"STATE","CONFIG"),"CONFIG")</f>
-        <v>STATE</v>
+        <v>CONFIG</v>
       </c>
       <c r="E66" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A66,"_",B66,"_",IFERROR(MID(C66,FIND(":",C66)+1,LEN(C66)-FIND(":",C66)),C66),".","xml"),"-","_")</f>
-        <v>if_subif_type.xml</v>
+        <v>if_subif_description.xml</v>
       </c>
       <c r="F66" s="8" t="str">
         <f aca="false">CONCATENATE(A66,"_",B66,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G66" s="14" t="s">
-        <v>113</v>
+      <c r="G66" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>15</v>
@@ -4028,14 +4016,14 @@
     </row>
     <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C67" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G67,"/",REPT(" ","500")),500))</f>
-        <v>description</v>
+        <v>enabled</v>
       </c>
       <c r="D67" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G67),"STATE","CONFIG"),"CONFIG")</f>
@@ -4043,14 +4031,14 @@
       </c>
       <c r="E67" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A67,"_",B67,"_",IFERROR(MID(C67,FIND(":",C67)+1,LEN(C67)-FIND(":",C67)),C67),".","xml"),"-","_")</f>
-        <v>if_subif_description.xml</v>
+        <v>if_subif_enabled.xml</v>
       </c>
       <c r="F67" s="8" t="str">
         <f aca="false">CONCATENATE(A67,"_",B67,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>15</v>
@@ -4068,14 +4056,14 @@
     </row>
     <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C68" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G68,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
+        <v>index</v>
       </c>
       <c r="D68" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G68),"STATE","CONFIG"),"CONFIG")</f>
@@ -4083,21 +4071,23 @@
       </c>
       <c r="E68" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A68,"_",B68,"_",IFERROR(MID(C68,FIND(":",C68)+1,LEN(C68)-FIND(":",C68)),C68),".","xml"),"-","_")</f>
-        <v>if_subif_enabled.xml</v>
+        <v>if_subif_index.xml</v>
       </c>
       <c r="F68" s="8" t="str">
         <f aca="false">CONCATENATE(A68,"_",B68,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I68" s="11"/>
+      <c r="I68" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="J68" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>16</v>
@@ -4106,40 +4096,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G69,"/",REPT(" ","500")),500))</f>
-        <v>index</v>
+        <v>oc-ip:ip</v>
       </c>
       <c r="D69" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G69),"STATE","CONFIG"),"CONFIG")</f>
-        <v>CONFIG</v>
-      </c>
-      <c r="E69" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A69,"_",B69,"_",IFERROR(MID(C69,FIND(":",C69)+1,LEN(C69)-FIND(":",C69)),C69),".","xml"),"-","_")</f>
-        <v>if_subif_index.xml</v>
+        <v>STATE</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F69" s="8" t="str">
         <f aca="false">CONCATENATE(A69,"_",B69,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G69" s="9" t="s">
-        <v>116</v>
+      <c r="G69" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="11" t="s">
-        <v>117</v>
+      <c r="I69" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>16</v>
@@ -4150,34 +4139,35 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G70,"/",REPT(" ","500")),500))</f>
-        <v>oc-ip:ip</v>
+        <v>oc-ip:origin</v>
       </c>
       <c r="D70" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G70),"STATE","CONFIG"),"CONFIG")</f>
-        <v>STATE</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>118</v>
+        <v>CONFIG</v>
+      </c>
+      <c r="E70" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A70,"_",B70,"_",IFERROR(MID(C70,FIND(":",C70)+1,LEN(C70)-FIND(":",C70)),C70),".","xml"),"-","_")</f>
+        <v>if_subif_origin.xml</v>
       </c>
       <c r="F70" s="8" t="str">
         <f aca="false">CONCATENATE(A70,"_",B70,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J70" s="12" t="s">
         <v>16</v>
@@ -4189,96 +4179,96 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G71,"/",REPT(" ","500")),500))</f>
-        <v>oc-ip:origin</v>
-      </c>
-      <c r="D71" s="8" t="str">
+    <row r="71" s="23" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D71" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G71),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E71" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A71,"_",B71,"_",IFERROR(MID(C71,FIND(":",C71)+1,LEN(C71)-FIND(":",C71)),C71),".","xml"),"-","_")</f>
-        <v>if_subif_origin.xml</v>
-      </c>
-      <c r="F71" s="8" t="str">
+      <c r="E71" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="18" t="str">
         <f aca="false">CONCATENATE(A71,"_",B71,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G71" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="H71" s="10" t="s">
+      <c r="G71" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" s="21" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" s="16" t="str">
+      <c r="I71" s="21"/>
+      <c r="J71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="8" t="str">
+        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G72,"/",REPT(" ","500")),500))</f>
+        <v>oc-ip:dhcp-client</v>
+      </c>
+      <c r="D72" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G72),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F72" s="16" t="str">
+      <c r="E72" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A72,"_",B72,"_",IFERROR(MID(C72,FIND(":",C72)+1,LEN(C72)-FIND(":",C72)),C72),".","xml"),"-","_")</f>
+        <v>if_subif_dhcp_client.xml</v>
+      </c>
+      <c r="F72" s="8" t="str">
         <f aca="false">CONCATENATE(A72,"_",B72,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H72" s="18" t="s">
+      <c r="G72" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="20" t="s">
+      <c r="I72" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C73" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G73,"/",REPT(" ","500")),500))</f>
-        <v>oc-ip:dhcp-client</v>
+        <v>oc-ip:mtu</v>
       </c>
       <c r="D73" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G73),"STATE","CONFIG"),"CONFIG")</f>
@@ -4286,20 +4276,20 @@
       </c>
       <c r="E73" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A73,"_",B73,"_",IFERROR(MID(C73,FIND(":",C73)+1,LEN(C73)-FIND(":",C73)),C73),".","xml"),"-","_")</f>
-        <v>if_subif_dhcp_client.xml</v>
+        <v>if_subif_mtu.xml</v>
       </c>
       <c r="F73" s="8" t="str">
         <f aca="false">CONCATENATE(A73,"_",B73,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J73" s="12" t="s">
         <v>16</v>
@@ -4311,16 +4301,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C74" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G74,"/",REPT(" ","500")),500))</f>
-        <v>oc-ip:mtu</v>
+        <v>oc-vlan:vlan-id</v>
       </c>
       <c r="D74" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G74),"STATE","CONFIG"),"CONFIG")</f>
@@ -4328,21 +4318,19 @@
       </c>
       <c r="E74" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A74,"_",B74,"_",IFERROR(MID(C74,FIND(":",C74)+1,LEN(C74)-FIND(":",C74)),C74),".","xml"),"-","_")</f>
-        <v>if_subif_mtu.xml</v>
+        <v>if_subif_vlan_id.xml</v>
       </c>
       <c r="F74" s="8" t="str">
         <f aca="false">CONCATENATE(A74,"_",B74,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G74" s="14" t="s">
-        <v>126</v>
+      <c r="G74" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="I74" s="11"/>
       <c r="J74" s="12" t="s">
         <v>16</v>
       </c>
@@ -4353,117 +4341,117 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G75,"/",REPT(" ","500")),500))</f>
-        <v>oc-vlan:vlan-id</v>
-      </c>
-      <c r="D75" s="8" t="str">
+    <row r="75" s="23" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G75),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E75" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A75,"_",B75,"_",IFERROR(MID(C75,FIND(":",C75)+1,LEN(C75)-FIND(":",C75)),C75),".","xml"),"-","_")</f>
-        <v>if_subif_vlan_id.xml</v>
-      </c>
-      <c r="F75" s="8" t="str">
+      <c r="E75" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" s="18" t="str">
         <f aca="false">CONCATENATE(A75,"_",B75,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="10" t="s">
+      <c r="G75" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" s="21" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" s="16" t="str">
+      <c r="I75" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="8" t="str">
+        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G76,"/",REPT(" ","500")),500))</f>
+        <v>oc-vlan:vlan-id</v>
+      </c>
+      <c r="D76" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G76),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="16" t="str">
+      <c r="E76" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="8" t="str">
         <f aca="false">CONCATENATE(A76,"_",B76,".yml")</f>
         <v>if_subif.yml</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="H76" s="18" t="s">
+      <c r="G76" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I76" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J76" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K76" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="20" t="s">
+      <c r="I76" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L76" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C77" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G77,"/",REPT(" ","500")),500))</f>
-        <v>oc-vlan:vlan-id</v>
+        <v>description</v>
       </c>
       <c r="D77" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G77),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>132</v>
+      <c r="E77" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A77,"_",B77,"_",IFERROR(MID(C77,FIND(":",C77)+1,LEN(C77)-FIND(":",C77)),C77),".","xml"),"-","_")</f>
+        <v>ni_config_description.xml</v>
       </c>
       <c r="F77" s="8" t="str">
         <f aca="false">CONCATENATE(A77,"_",B77,".yml")</f>
-        <v>if_subif.yml</v>
+        <v>ni_config.yml</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>134</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I77" s="11"/>
       <c r="J77" s="12" t="s">
         <v>16</v>
       </c>
@@ -4476,14 +4464,14 @@
     </row>
     <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G78,"/",REPT(" ","500")),500))</f>
-        <v>description</v>
+        <v>enabled</v>
       </c>
       <c r="D78" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G78),"STATE","CONFIG"),"CONFIG")</f>
@@ -4491,17 +4479,17 @@
       </c>
       <c r="E78" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A78,"_",B78,"_",IFERROR(MID(C78,FIND(":",C78)+1,LEN(C78)-FIND(":",C78)),C78),".","xml"),"-","_")</f>
-        <v>ni_config_description.xml</v>
+        <v>ni_config_enabled.xml</v>
       </c>
       <c r="F78" s="8" t="str">
         <f aca="false">CONCATENATE(A78,"_",B78,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="12" t="s">
@@ -4516,14 +4504,14 @@
     </row>
     <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G79,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
+        <v>enabled-address-families</v>
       </c>
       <c r="D79" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G79),"STATE","CONFIG"),"CONFIG")</f>
@@ -4531,17 +4519,17 @@
       </c>
       <c r="E79" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A79,"_",B79,"_",IFERROR(MID(C79,FIND(":",C79)+1,LEN(C79)-FIND(":",C79)),C79),".","xml"),"-","_")</f>
-        <v>ni_config_enabled.xml</v>
+        <v>ni_config_enabled_address_families.xml</v>
       </c>
       <c r="F79" s="8" t="str">
         <f aca="false">CONCATENATE(A79,"_",B79,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G79" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H79" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="12" t="s">
@@ -4556,14 +4544,14 @@
     </row>
     <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C80" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G80,"/",REPT(" ","500")),500))</f>
-        <v>enabled-address-families</v>
+        <v>mtu</v>
       </c>
       <c r="D80" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G80),"STATE","CONFIG"),"CONFIG")</f>
@@ -4571,17 +4559,17 @@
       </c>
       <c r="E80" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A80,"_",B80,"_",IFERROR(MID(C80,FIND(":",C80)+1,LEN(C80)-FIND(":",C80)),C80),".","xml"),"-","_")</f>
-        <v>ni_config_enabled_address_families.xml</v>
+        <v>ni_config_mtu.xml</v>
       </c>
       <c r="F80" s="8" t="str">
         <f aca="false">CONCATENATE(A80,"_",B80,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="12" t="s">
@@ -4596,14 +4584,14 @@
     </row>
     <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G81,"/",REPT(" ","500")),500))</f>
-        <v>mtu</v>
+        <v>name</v>
       </c>
       <c r="D81" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G81),"STATE","CONFIG"),"CONFIG")</f>
@@ -4611,19 +4599,21 @@
       </c>
       <c r="E81" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A81,"_",B81,"_",IFERROR(MID(C81,FIND(":",C81)+1,LEN(C81)-FIND(":",C81)),C81),".","xml"),"-","_")</f>
-        <v>ni_config_mtu.xml</v>
+        <v>ni_config_name.xml</v>
       </c>
       <c r="F81" s="8" t="str">
         <f aca="false">CONCATENATE(A81,"_",B81,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I81" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="J81" s="12" t="s">
         <v>16</v>
       </c>
@@ -4636,14 +4626,14 @@
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C82" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G82,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
+        <v>route-distinguisher</v>
       </c>
       <c r="D82" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G82),"STATE","CONFIG"),"CONFIG")</f>
@@ -4651,21 +4641,19 @@
       </c>
       <c r="E82" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A82,"_",B82,"_",IFERROR(MID(C82,FIND(":",C82)+1,LEN(C82)-FIND(":",C82)),C82),".","xml"),"-","_")</f>
-        <v>ni_config_name.xml</v>
+        <v>ni_config_route_distinguisher.xml</v>
       </c>
       <c r="F82" s="8" t="str">
         <f aca="false">CONCATENATE(A82,"_",B82,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I82" s="11"/>
       <c r="J82" s="12" t="s">
         <v>16</v>
       </c>
@@ -4678,14 +4666,14 @@
     </row>
     <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C83" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G83,"/",REPT(" ","500")),500))</f>
-        <v>route-distinguisher</v>
+        <v>router-id</v>
       </c>
       <c r="D83" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G83),"STATE","CONFIG"),"CONFIG")</f>
@@ -4693,17 +4681,17 @@
       </c>
       <c r="E83" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A83,"_",B83,"_",IFERROR(MID(C83,FIND(":",C83)+1,LEN(C83)-FIND(":",C83)),C83),".","xml"),"-","_")</f>
-        <v>ni_config_route_distinguisher.xml</v>
+        <v>ni_config_router_id.xml</v>
       </c>
       <c r="F83" s="8" t="str">
         <f aca="false">CONCATENATE(A83,"_",B83,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="12" t="s">
@@ -4718,14 +4706,14 @@
     </row>
     <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C84" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G84,"/",REPT(" ","500")),500))</f>
-        <v>router-id</v>
+        <v>type</v>
       </c>
       <c r="D84" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G84),"STATE","CONFIG"),"CONFIG")</f>
@@ -4733,17 +4721,17 @@
       </c>
       <c r="E84" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A84,"_",B84,"_",IFERROR(MID(C84,FIND(":",C84)+1,LEN(C84)-FIND(":",C84)),C84),".","xml"),"-","_")</f>
-        <v>ni_config_router_id.xml</v>
+        <v>ni_config_type.xml</v>
       </c>
       <c r="F84" s="8" t="str">
         <f aca="false">CONCATENATE(A84,"_",B84,".yml")</f>
         <v>ni_config.yml</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12" t="s">
@@ -4758,14 +4746,14 @@
     </row>
     <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="C85" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G85,"/",REPT(" ","500")),500))</f>
-        <v>type</v>
+        <v>connection-point-id</v>
       </c>
       <c r="D85" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G85),"STATE","CONFIG"),"CONFIG")</f>
@@ -4773,17 +4761,17 @@
       </c>
       <c r="E85" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A85,"_",B85,"_",IFERROR(MID(C85,FIND(":",C85)+1,LEN(C85)-FIND(":",C85)),C85),".","xml"),"-","_")</f>
-        <v>ni_config_type.xml</v>
+        <v>ni_connection_point_connection_point_id.xml</v>
       </c>
       <c r="F85" s="8" t="str">
         <f aca="false">CONCATENATE(A85,"_",B85,".yml")</f>
-        <v>ni_config.yml</v>
+        <v>ni_connection_point.yml</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="12" t="s">
@@ -4798,14 +4786,14 @@
     </row>
     <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G86,"/",REPT(" ","500")),500))</f>
-        <v>connection-point-id</v>
+        <v>endpoint-id</v>
       </c>
       <c r="D86" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G86),"STATE","CONFIG"),"CONFIG")</f>
@@ -4813,17 +4801,17 @@
       </c>
       <c r="E86" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A86,"_",B86,"_",IFERROR(MID(C86,FIND(":",C86)+1,LEN(C86)-FIND(":",C86)),C86),".","xml"),"-","_")</f>
-        <v>ni_connection_point_connection_point_id.xml</v>
+        <v>ni_connection_point_endpoint_id.xml</v>
       </c>
       <c r="F86" s="8" t="str">
         <f aca="false">CONCATENATE(A86,"_",B86,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="12" t="s">
@@ -4838,14 +4826,14 @@
     </row>
     <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C87" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G87,"/",REPT(" ","500")),500))</f>
-        <v>endpoint-id</v>
+        <v>precedence</v>
       </c>
       <c r="D87" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G87),"STATE","CONFIG"),"CONFIG")</f>
@@ -4853,17 +4841,17 @@
       </c>
       <c r="E87" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A87,"_",B87,"_",IFERROR(MID(C87,FIND(":",C87)+1,LEN(C87)-FIND(":",C87)),C87),".","xml"),"-","_")</f>
-        <v>ni_connection_point_endpoint_id.xml</v>
+        <v>ni_connection_point_precedence.xml</v>
       </c>
       <c r="F87" s="8" t="str">
         <f aca="false">CONCATENATE(A87,"_",B87,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="12" t="s">
@@ -4878,14 +4866,14 @@
     </row>
     <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C88" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G88,"/",REPT(" ","500")),500))</f>
-        <v>precedence</v>
+        <v>type</v>
       </c>
       <c r="D88" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G88),"STATE","CONFIG"),"CONFIG")</f>
@@ -4893,17 +4881,17 @@
       </c>
       <c r="E88" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A88,"_",B88,"_",IFERROR(MID(C88,FIND(":",C88)+1,LEN(C88)-FIND(":",C88)),C88),".","xml"),"-","_")</f>
-        <v>ni_connection_point_precedence.xml</v>
+        <v>ni_connection_point_type.xml</v>
       </c>
       <c r="F88" s="8" t="str">
         <f aca="false">CONCATENATE(A88,"_",B88,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="12" t="s">
@@ -4918,14 +4906,14 @@
     </row>
     <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C89" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G89,"/",REPT(" ","500")),500))</f>
-        <v>type</v>
+        <v>remote-system</v>
       </c>
       <c r="D89" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G89),"STATE","CONFIG"),"CONFIG")</f>
@@ -4933,17 +4921,17 @@
       </c>
       <c r="E89" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A89,"_",B89,"_",IFERROR(MID(C89,FIND(":",C89)+1,LEN(C89)-FIND(":",C89)),C89),".","xml"),"-","_")</f>
-        <v>ni_connection_point_type.xml</v>
+        <v>ni_connection_point_remote_system.xml</v>
       </c>
       <c r="F89" s="8" t="str">
         <f aca="false">CONCATENATE(A89,"_",B89,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="12" t="s">
@@ -4958,14 +4946,14 @@
     </row>
     <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C90" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G90,"/",REPT(" ","500")),500))</f>
-        <v>remote-system</v>
+        <v>site-id</v>
       </c>
       <c r="D90" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G90),"STATE","CONFIG"),"CONFIG")</f>
@@ -4973,17 +4961,17 @@
       </c>
       <c r="E90" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A90,"_",B90,"_",IFERROR(MID(C90,FIND(":",C90)+1,LEN(C90)-FIND(":",C90)),C90),".","xml"),"-","_")</f>
-        <v>ni_connection_point_remote_system.xml</v>
+        <v>ni_connection_point_site_id.xml</v>
       </c>
       <c r="F90" s="8" t="str">
         <f aca="false">CONCATENATE(A90,"_",B90,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="12" t="s">
@@ -4998,14 +4986,14 @@
     </row>
     <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C91" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G91,"/",REPT(" ","500")),500))</f>
-        <v>site-id</v>
+        <v>virtual-circuit-identifier</v>
       </c>
       <c r="D91" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G91),"STATE","CONFIG"),"CONFIG")</f>
@@ -5013,17 +5001,17 @@
       </c>
       <c r="E91" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A91,"_",B91,"_",IFERROR(MID(C91,FIND(":",C91)+1,LEN(C91)-FIND(":",C91)),C91),".","xml"),"-","_")</f>
-        <v>ni_connection_point_site_id.xml</v>
+        <v>ni_connection_point_virtual_circuit_identifier.xml</v>
       </c>
       <c r="F91" s="8" t="str">
         <f aca="false">CONCATENATE(A91,"_",B91,".yml")</f>
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="12" t="s">
@@ -5038,14 +5026,14 @@
     </row>
     <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C92" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G92,"/",REPT(" ","500")),500))</f>
-        <v>virtual-circuit-identifier</v>
+        <v>encapsulation-type</v>
       </c>
       <c r="D92" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G92),"STATE","CONFIG"),"CONFIG")</f>
@@ -5053,19 +5041,21 @@
       </c>
       <c r="E92" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A92,"_",B92,"_",IFERROR(MID(C92,FIND(":",C92)+1,LEN(C92)-FIND(":",C92)),C92),".","xml"),"-","_")</f>
-        <v>ni_connection_point_virtual_circuit_identifier.xml</v>
+        <v>ni_encapsulation_encapsulation_type.xml</v>
       </c>
       <c r="F92" s="8" t="str">
         <f aca="false">CONCATENATE(A92,"_",B92,".yml")</f>
-        <v>ni_connection_point.yml</v>
+        <v>ni_encapsulation.yml</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I92" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="J92" s="12" t="s">
         <v>16</v>
       </c>
@@ -5078,14 +5068,14 @@
     </row>
     <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C93" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G93,"/",REPT(" ","500")),500))</f>
-        <v>encapsulation-type</v>
+        <v>label-allocation-mode</v>
       </c>
       <c r="D93" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G93),"STATE","CONFIG"),"CONFIG")</f>
@@ -5093,21 +5083,19 @@
       </c>
       <c r="E93" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A93,"_",B93,"_",IFERROR(MID(C93,FIND(":",C93)+1,LEN(C93)-FIND(":",C93)),C93),".","xml"),"-","_")</f>
-        <v>ni_encapsulation_encapsulation_type.xml</v>
+        <v>ni_encapsulation_label_allocation_mode.xml</v>
       </c>
       <c r="F93" s="8" t="str">
         <f aca="false">CONCATENATE(A93,"_",B93,".yml")</f>
         <v>ni_encapsulation.yml</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>156</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I93" s="11"/>
       <c r="J93" s="12" t="s">
         <v>16</v>
       </c>
@@ -5120,14 +5108,14 @@
     </row>
     <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C94" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G94,"/",REPT(" ","500")),500))</f>
-        <v>label-allocation-mode</v>
+        <v>mac-aging-time</v>
       </c>
       <c r="D94" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G94),"STATE","CONFIG"),"CONFIG")</f>
@@ -5135,17 +5123,17 @@
       </c>
       <c r="E94" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A94,"_",B94,"_",IFERROR(MID(C94,FIND(":",C94)+1,LEN(C94)-FIND(":",C94)),C94),".","xml"),"-","_")</f>
-        <v>ni_encapsulation_label_allocation_mode.xml</v>
+        <v>ni_fdb_mac_aging_time.xml</v>
       </c>
       <c r="F94" s="8" t="str">
         <f aca="false">CONCATENATE(A94,"_",B94,".yml")</f>
-        <v>ni_encapsulation.yml</v>
+        <v>ni_fdb.yml</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="12" t="s">
@@ -5160,14 +5148,14 @@
     </row>
     <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C95" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G95,"/",REPT(" ","500")),500))</f>
-        <v>mac-aging-time</v>
+        <v>mac-learning</v>
       </c>
       <c r="D95" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G95),"STATE","CONFIG"),"CONFIG")</f>
@@ -5175,17 +5163,17 @@
       </c>
       <c r="E95" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A95,"_",B95,"_",IFERROR(MID(C95,FIND(":",C95)+1,LEN(C95)-FIND(":",C95)),C95),".","xml"),"-","_")</f>
-        <v>ni_fdb_mac_aging_time.xml</v>
+        <v>ni_fdb_mac_learning.xml</v>
       </c>
       <c r="F95" s="8" t="str">
         <f aca="false">CONCATENATE(A95,"_",B95,".yml")</f>
         <v>ni_fdb.yml</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="12" t="s">
@@ -5200,14 +5188,14 @@
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C96" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G96,"/",REPT(" ","500")),500))</f>
-        <v>mac-learning</v>
+        <v>maximum-entries</v>
       </c>
       <c r="D96" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G96),"STATE","CONFIG"),"CONFIG")</f>
@@ -5215,17 +5203,17 @@
       </c>
       <c r="E96" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A96,"_",B96,"_",IFERROR(MID(C96,FIND(":",C96)+1,LEN(C96)-FIND(":",C96)),C96),".","xml"),"-","_")</f>
-        <v>ni_fdb_mac_learning.xml</v>
+        <v>ni_fdb_maximum_entries.xml</v>
       </c>
       <c r="F96" s="8" t="str">
         <f aca="false">CONCATENATE(A96,"_",B96,".yml")</f>
         <v>ni_fdb.yml</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="12" t="s">
@@ -5238,16 +5226,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C97" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G97,"/",REPT(" ","500")),500))</f>
-        <v>maximum-entries</v>
+        <v>export-policy</v>
       </c>
       <c r="D97" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G97),"STATE","CONFIG"),"CONFIG")</f>
@@ -5255,39 +5243,41 @@
       </c>
       <c r="E97" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A97,"_",B97,"_",IFERROR(MID(C97,FIND(":",C97)+1,LEN(C97)-FIND(":",C97)),C97),".","xml"),"-","_")</f>
-        <v>ni_fdb_maximum_entries.xml</v>
+        <v>ni_rt_policy_export_policy.xml</v>
       </c>
       <c r="F97" s="8" t="str">
         <f aca="false">CONCATENATE(A97,"_",B97,".yml")</f>
-        <v>ni_fdb.yml</v>
+        <v>ni_rt_policy.yml</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I97" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="J97" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C98" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G98,"/",REPT(" ","500")),500))</f>
-        <v>export-policy</v>
+        <v>import-policy</v>
       </c>
       <c r="D98" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G98),"STATE","CONFIG"),"CONFIG")</f>
@@ -5295,20 +5285,20 @@
       </c>
       <c r="E98" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A98,"_",B98,"_",IFERROR(MID(C98,FIND(":",C98)+1,LEN(C98)-FIND(":",C98)),C98),".","xml"),"-","_")</f>
-        <v>ni_rt_policy_export_policy.xml</v>
+        <v>ni_rt_policy_import_policy.xml</v>
       </c>
       <c r="F98" s="8" t="str">
         <f aca="false">CONCATENATE(A98,"_",B98,".yml")</f>
         <v>ni_rt_policy.yml</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J98" s="12" t="s">
         <v>17</v>
@@ -5320,16 +5310,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C99" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G99,"/",REPT(" ","500")),500))</f>
-        <v>import-policy</v>
+        <v>id</v>
       </c>
       <c r="D99" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G99),"STATE","CONFIG"),"CONFIG")</f>
@@ -5337,41 +5327,39 @@
       </c>
       <c r="E99" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A99,"_",B99,"_",IFERROR(MID(C99,FIND(":",C99)+1,LEN(C99)-FIND(":",C99)),C99),".","xml"),"-","_")</f>
-        <v>ni_rt_policy_import_policy.xml</v>
+        <v>ni_interface_id.xml</v>
       </c>
       <c r="F99" s="8" t="str">
         <f aca="false">CONCATENATE(A99,"_",B99,".yml")</f>
-        <v>ni_rt_policy.yml</v>
+        <v>ni_interface.yml</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>164</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I99" s="11"/>
       <c r="J99" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C100" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G100,"/",REPT(" ","500")),500))</f>
-        <v>id</v>
+        <v>interface</v>
       </c>
       <c r="D100" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G100),"STATE","CONFIG"),"CONFIG")</f>
@@ -5379,39 +5367,41 @@
       </c>
       <c r="E100" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A100,"_",B100,"_",IFERROR(MID(C100,FIND(":",C100)+1,LEN(C100)-FIND(":",C100)),C100),".","xml"),"-","_")</f>
-        <v>ni_interface_id.xml</v>
+        <v>ni_interface_interface.xml</v>
       </c>
       <c r="F100" s="8" t="str">
         <f aca="false">CONCATENATE(A100,"_",B100,".yml")</f>
         <v>ni_interface.yml</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I100" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="J100" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C101" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G101,"/",REPT(" ","500")),500))</f>
-        <v>interface</v>
+        <v>subinterface</v>
       </c>
       <c r="D101" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G101),"STATE","CONFIG"),"CONFIG")</f>
@@ -5419,20 +5409,20 @@
       </c>
       <c r="E101" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A101,"_",B101,"_",IFERROR(MID(C101,FIND(":",C101)+1,LEN(C101)-FIND(":",C101)),C101),".","xml"),"-","_")</f>
-        <v>ni_interface_interface.xml</v>
+        <v>ni_interface_subinterface.xml</v>
       </c>
       <c r="F101" s="8" t="str">
         <f aca="false">CONCATENATE(A101,"_",B101,".yml")</f>
         <v>ni_interface.yml</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J101" s="12" t="s">
         <v>17</v>
@@ -5446,14 +5436,14 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C102" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G102,"/",REPT(" ","500")),500))</f>
-        <v>subinterface</v>
+        <v>afi-name</v>
       </c>
       <c r="D102" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G102),"STATE","CONFIG"),"CONFIG")</f>
@@ -5461,41 +5451,41 @@
       </c>
       <c r="E102" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A102,"_",B102,"_",IFERROR(MID(C102,FIND(":",C102)+1,LEN(C102)-FIND(":",C102)),C102),".","xml"),"-","_")</f>
-        <v>ni_interface_subinterface.xml</v>
+        <v>ni_t_ldp_afi_name.xml</v>
       </c>
       <c r="F102" s="8" t="str">
         <f aca="false">CONCATENATE(A102,"_",B102,".yml")</f>
-        <v>ni_interface.yml</v>
+        <v>ni_t_ldp.yml</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G103,"/",REPT(" ","500")),500))</f>
-        <v>afi-name</v>
+        <v>enabled</v>
       </c>
       <c r="D103" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G103),"STATE","CONFIG"),"CONFIG")</f>
@@ -5503,20 +5493,20 @@
       </c>
       <c r="E103" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A103,"_",B103,"_",IFERROR(MID(C103,FIND(":",C103)+1,LEN(C103)-FIND(":",C103)),C103),".","xml"),"-","_")</f>
-        <v>ni_t_ldp_afi_name.xml</v>
+        <v>ni_t_ldp_enabled.xml</v>
       </c>
       <c r="F103" s="8" t="str">
         <f aca="false">CONCATENATE(A103,"_",B103,".yml")</f>
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J103" s="12" t="s">
         <v>16</v>
@@ -5530,14 +5520,14 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G104,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
+        <v>local-address</v>
       </c>
       <c r="D104" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G104),"STATE","CONFIG"),"CONFIG")</f>
@@ -5545,20 +5535,20 @@
       </c>
       <c r="E104" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A104,"_",B104,"_",IFERROR(MID(C104,FIND(":",C104)+1,LEN(C104)-FIND(":",C104)),C104),".","xml"),"-","_")</f>
-        <v>ni_t_ldp_enabled.xml</v>
+        <v>ni_t_ldp_local_address.xml</v>
       </c>
       <c r="F104" s="8" t="str">
         <f aca="false">CONCATENATE(A104,"_",B104,".yml")</f>
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G104" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="J104" s="12" t="s">
         <v>16</v>
@@ -5572,14 +5562,14 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C105" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G105,"/",REPT(" ","500")),500))</f>
-        <v>local-address</v>
+        <v>remote-address</v>
       </c>
       <c r="D105" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G105),"STATE","CONFIG"),"CONFIG")</f>
@@ -5587,20 +5577,20 @@
       </c>
       <c r="E105" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A105,"_",B105,"_",IFERROR(MID(C105,FIND(":",C105)+1,LEN(C105)-FIND(":",C105)),C105),".","xml"),"-","_")</f>
-        <v>ni_t_ldp_local_address.xml</v>
+        <v>ni_t_ldp_remote_address.xml</v>
       </c>
       <c r="F105" s="8" t="str">
         <f aca="false">CONCATENATE(A105,"_",B105,".yml")</f>
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>16</v>
@@ -5612,16 +5602,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C106" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G106,"/",REPT(" ","500")),500))</f>
-        <v>remote-address</v>
+        <v>as</v>
       </c>
       <c r="D106" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G106),"STATE","CONFIG"),"CONFIG")</f>
@@ -5629,21 +5619,19 @@
       </c>
       <c r="E106" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A106,"_",B106,"_",IFERROR(MID(C106,FIND(":",C106)+1,LEN(C106)-FIND(":",C106)),C106),".","xml"),"-","_")</f>
-        <v>ni_t_ldp_remote_address.xml</v>
+        <v>ni_bgp_as.xml</v>
       </c>
       <c r="F106" s="8" t="str">
         <f aca="false">CONCATENATE(A106,"_",B106,".yml")</f>
-        <v>ni_t_ldp.yml</v>
+        <v>ni_bgp.yml</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>173</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I106" s="11"/>
       <c r="J106" s="12" t="s">
         <v>16</v>
       </c>
@@ -5656,14 +5644,14 @@
     </row>
     <row r="107" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G107,"/",REPT(" ","500")),500))</f>
-        <v>as</v>
+        <v>router-id</v>
       </c>
       <c r="D107" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G107),"STATE","CONFIG"),"CONFIG")</f>
@@ -5671,17 +5659,17 @@
       </c>
       <c r="E107" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A107,"_",B107,"_",IFERROR(MID(C107,FIND(":",C107)+1,LEN(C107)-FIND(":",C107)),C107),".","xml"),"-","_")</f>
-        <v>ni_bgp_as.xml</v>
+        <v>ni_bgp_router_id.xml</v>
       </c>
       <c r="F107" s="8" t="str">
         <f aca="false">CONCATENATE(A107,"_",B107,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I107" s="11"/>
       <c r="J107" s="12" t="s">
@@ -5694,16 +5682,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C108" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G108,"/",REPT(" ","500")),500))</f>
-        <v>router-id</v>
+        <v>export-policy</v>
       </c>
       <c r="D108" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G108),"STATE","CONFIG"),"CONFIG")</f>
@@ -5711,39 +5699,41 @@
       </c>
       <c r="E108" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A108,"_",B108,"_",IFERROR(MID(C108,FIND(":",C108)+1,LEN(C108)-FIND(":",C108)),C108),".","xml"),"-","_")</f>
-        <v>ni_bgp_router_id.xml</v>
+        <v>ni_bgp_export_policy.xml</v>
       </c>
       <c r="F108" s="8" t="str">
         <f aca="false">CONCATENATE(A108,"_",B108,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I108" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="J108" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C109" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G109,"/",REPT(" ","500")),500))</f>
-        <v>export-policy</v>
+        <v>import-policy</v>
       </c>
       <c r="D109" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G109),"STATE","CONFIG"),"CONFIG")</f>
@@ -5751,20 +5741,20 @@
       </c>
       <c r="E109" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A109,"_",B109,"_",IFERROR(MID(C109,FIND(":",C109)+1,LEN(C109)-FIND(":",C109)),C109),".","xml"),"-","_")</f>
-        <v>ni_bgp_export_policy.xml</v>
+        <v>ni_bgp_import_policy.xml</v>
       </c>
       <c r="F109" s="8" t="str">
         <f aca="false">CONCATENATE(A109,"_",B109,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J109" s="12" t="s">
         <v>16</v>
@@ -5776,16 +5766,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C110" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G110,"/",REPT(" ","500")),500))</f>
-        <v>import-policy</v>
+        <v>description</v>
       </c>
       <c r="D110" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G110),"STATE","CONFIG"),"CONFIG")</f>
@@ -5793,41 +5783,39 @@
       </c>
       <c r="E110" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A110,"_",B110,"_",IFERROR(MID(C110,FIND(":",C110)+1,LEN(C110)-FIND(":",C110)),C110),".","xml"),"-","_")</f>
-        <v>ni_bgp_import_policy.xml</v>
+        <v>ni_bgp_description.xml</v>
       </c>
       <c r="F110" s="8" t="str">
         <f aca="false">CONCATENATE(A110,"_",B110,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>181</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I110" s="11"/>
       <c r="J110" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C111" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G111,"/",REPT(" ","500")),500))</f>
-        <v>description</v>
+        <v>local-as</v>
       </c>
       <c r="D111" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G111),"STATE","CONFIG"),"CONFIG")</f>
@@ -5835,17 +5823,17 @@
       </c>
       <c r="E111" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A111,"_",B111,"_",IFERROR(MID(C111,FIND(":",C111)+1,LEN(C111)-FIND(":",C111)),C111),".","xml"),"-","_")</f>
-        <v>ni_bgp_description.xml</v>
+        <v>ni_bgp_local_as.xml</v>
       </c>
       <c r="F111" s="8" t="str">
         <f aca="false">CONCATENATE(A111,"_",B111,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="12" t="s">
@@ -5860,14 +5848,14 @@
     </row>
     <row r="112" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C112" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G112,"/",REPT(" ","500")),500))</f>
-        <v>local-as</v>
+        <v>neighbor-address</v>
       </c>
       <c r="D112" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G112),"STATE","CONFIG"),"CONFIG")</f>
@@ -5875,17 +5863,17 @@
       </c>
       <c r="E112" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A112,"_",B112,"_",IFERROR(MID(C112,FIND(":",C112)+1,LEN(C112)-FIND(":",C112)),C112),".","xml"),"-","_")</f>
-        <v>ni_bgp_local_as.xml</v>
+        <v>ni_bgp_neighbor_address.xml</v>
       </c>
       <c r="F112" s="8" t="str">
         <f aca="false">CONCATENATE(A112,"_",B112,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="12" t="s">
@@ -5900,14 +5888,14 @@
     </row>
     <row r="113" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G113,"/",REPT(" ","500")),500))</f>
-        <v>neighbor-address</v>
+        <v>peer-as</v>
       </c>
       <c r="D113" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G113),"STATE","CONFIG"),"CONFIG")</f>
@@ -5915,17 +5903,17 @@
       </c>
       <c r="E113" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A113,"_",B113,"_",IFERROR(MID(C113,FIND(":",C113)+1,LEN(C113)-FIND(":",C113)),C113),".","xml"),"-","_")</f>
-        <v>ni_bgp_neighbor_address.xml</v>
+        <v>ni_bgp_peer_as.xml</v>
       </c>
       <c r="F113" s="8" t="str">
         <f aca="false">CONCATENATE(A113,"_",B113,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="12" t="s">
@@ -5940,14 +5928,14 @@
     </row>
     <row r="114" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C114" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G114,"/",REPT(" ","500")),500))</f>
-        <v>peer-as</v>
+        <v>peer-type</v>
       </c>
       <c r="D114" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G114),"STATE","CONFIG"),"CONFIG")</f>
@@ -5955,17 +5943,17 @@
       </c>
       <c r="E114" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A114,"_",B114,"_",IFERROR(MID(C114,FIND(":",C114)+1,LEN(C114)-FIND(":",C114)),C114),".","xml"),"-","_")</f>
-        <v>ni_bgp_peer_as.xml</v>
+        <v>ni_bgp_peer_type.xml</v>
       </c>
       <c r="F114" s="8" t="str">
         <f aca="false">CONCATENATE(A114,"_",B114,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="12" t="s">
@@ -5980,14 +5968,14 @@
     </row>
     <row r="115" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C115" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G115,"/",REPT(" ","500")),500))</f>
-        <v>peer-type</v>
+        <v>remove-private-as</v>
       </c>
       <c r="D115" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G115),"STATE","CONFIG"),"CONFIG")</f>
@@ -5995,17 +5983,17 @@
       </c>
       <c r="E115" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A115,"_",B115,"_",IFERROR(MID(C115,FIND(":",C115)+1,LEN(C115)-FIND(":",C115)),C115),".","xml"),"-","_")</f>
-        <v>ni_bgp_peer_type.xml</v>
+        <v>ni_bgp_remove_private_as.xml</v>
       </c>
       <c r="F115" s="8" t="str">
         <f aca="false">CONCATENATE(A115,"_",B115,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="12" t="s">
@@ -6020,14 +6008,14 @@
     </row>
     <row r="116" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C116" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G116,"/",REPT(" ","500")),500))</f>
-        <v>remove-private-as</v>
+        <v>enabled</v>
       </c>
       <c r="D116" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G116),"STATE","CONFIG"),"CONFIG")</f>
@@ -6035,17 +6023,17 @@
       </c>
       <c r="E116" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A116,"_",B116,"_",IFERROR(MID(C116,FIND(":",C116)+1,LEN(C116)-FIND(":",C116)),C116),".","xml"),"-","_")</f>
-        <v>ni_bgp_remove_private_as.xml</v>
+        <v>ni_bgp_enabled.xml</v>
       </c>
       <c r="F116" s="8" t="str">
         <f aca="false">CONCATENATE(A116,"_",B116,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="12" t="s">
@@ -6060,14 +6048,14 @@
     </row>
     <row r="117" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C117" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G117,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
+        <v>multihop-ttl</v>
       </c>
       <c r="D117" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G117),"STATE","CONFIG"),"CONFIG")</f>
@@ -6075,17 +6063,17 @@
       </c>
       <c r="E117" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A117,"_",B117,"_",IFERROR(MID(C117,FIND(":",C117)+1,LEN(C117)-FIND(":",C117)),C117),".","xml"),"-","_")</f>
-        <v>ni_bgp_enabled.xml</v>
+        <v>ni_bgp_multihop_ttl.xml</v>
       </c>
       <c r="F117" s="8" t="str">
         <f aca="false">CONCATENATE(A117,"_",B117,".yml")</f>
         <v>ni_bgp.yml</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I117" s="11"/>
       <c r="J117" s="12" t="s">
@@ -6100,14 +6088,14 @@
     </row>
     <row r="118" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C118" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G118,"/",REPT(" ","500")),500))</f>
-        <v>multihop-ttl</v>
+        <v>enabled</v>
       </c>
       <c r="D118" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G118),"STATE","CONFIG"),"CONFIG")</f>
@@ -6115,17 +6103,17 @@
       </c>
       <c r="E118" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A118,"_",B118,"_",IFERROR(MID(C118,FIND(":",C118)+1,LEN(C118)-FIND(":",C118)),C118),".","xml"),"-","_")</f>
-        <v>ni_bgp_multihop_ttl.xml</v>
+        <v>ni_protocol_instances_enabled.xml</v>
       </c>
       <c r="F118" s="8" t="str">
         <f aca="false">CONCATENATE(A118,"_",B118,".yml")</f>
-        <v>ni_bgp.yml</v>
+        <v>ni_protocol_instances.yml</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="12" t="s">
@@ -6138,114 +6126,113 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C119" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G119,"/",REPT(" ","500")),500))</f>
-        <v>enabled</v>
-      </c>
-      <c r="D119" s="8" t="str">
+    <row r="119" s="23" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G119),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E119" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A119,"_",B119,"_",IFERROR(MID(C119,FIND(":",C119)+1,LEN(C119)-FIND(":",C119)),C119),".","xml"),"-","_")</f>
-        <v>ni_protocol_instances_enabled.xml</v>
-      </c>
-      <c r="F119" s="8" t="str">
+      <c r="E119" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F119" s="18" t="str">
         <f aca="false">CONCATENATE(A119,"_",B119,".yml")</f>
         <v>ni_protocol_instances.yml</v>
       </c>
-      <c r="G119" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I119" s="11"/>
-      <c r="J119" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K119" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L119" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" s="21" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D120" s="16" t="str">
+      <c r="G119" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I119" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J119" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C120" s="8" t="str">
+        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G120,"/",REPT(" ","500")),500))</f>
+        <v>identifier</v>
+      </c>
+      <c r="D120" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G120),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F120" s="16" t="str">
+      <c r="E120" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A120,"_",B120,"_",IFERROR(MID(C120,FIND(":",C120)+1,LEN(C120)-FIND(":",C120)),C120),".","xml"),"-","_")</f>
+        <v>ni_ospf_identifier.xml</v>
+      </c>
+      <c r="F120" s="8" t="str">
         <f aca="false">CONCATENATE(A120,"_",B120,".yml")</f>
-        <v>ni_protocol_instances.yml</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="H120" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I120" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J120" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K120" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="20" t="s">
+        <v>ni_ospf.yml</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" s="11"/>
+      <c r="J120" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L120" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C121" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G121,"/",REPT(" ","500")),500))</f>
-        <v>identifier</v>
+        <v>authentication-</v>
       </c>
       <c r="D121" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G121),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E121" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A121,"_",B121,"_",IFERROR(MID(C121,FIND(":",C121)+1,LEN(C121)-FIND(":",C121)),C121),".","xml"),"-","_")</f>
-        <v>ni_ospf_identifier.xml</v>
+      <c r="E121" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F121" s="8" t="str">
         <f aca="false">CONCATENATE(A121,"_",B121,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="12" t="s">
@@ -6260,31 +6247,32 @@
     </row>
     <row r="122" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C122" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G122,"/",REPT(" ","500")),500))</f>
-        <v>authentication-</v>
+        <v>id</v>
       </c>
       <c r="D122" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G122),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>199</v>
+      <c r="E122" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A122,"_",B122,"_",IFERROR(MID(C122,FIND(":",C122)+1,LEN(C122)-FIND(":",C122)),C122),".","xml"),"-","_")</f>
+        <v>ni_ospf_id.xml</v>
       </c>
       <c r="F122" s="8" t="str">
         <f aca="false">CONCATENATE(A122,"_",B122,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="12" t="s">
@@ -6299,14 +6287,14 @@
     </row>
     <row r="123" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C123" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G123,"/",REPT(" ","500")),500))</f>
-        <v>id</v>
+        <v>network-type</v>
       </c>
       <c r="D123" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G123),"STATE","CONFIG"),"CONFIG")</f>
@@ -6314,17 +6302,17 @@
       </c>
       <c r="E123" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A123,"_",B123,"_",IFERROR(MID(C123,FIND(":",C123)+1,LEN(C123)-FIND(":",C123)),C123),".","xml"),"-","_")</f>
-        <v>ni_ospf_id.xml</v>
+        <v>ni_ospf_network_type.xml</v>
       </c>
       <c r="F123" s="8" t="str">
         <f aca="false">CONCATENATE(A123,"_",B123,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="12" t="s">
@@ -6339,14 +6327,14 @@
     </row>
     <row r="124" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C124" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G124,"/",REPT(" ","500")),500))</f>
-        <v>network-type</v>
+        <v>passive</v>
       </c>
       <c r="D124" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G124),"STATE","CONFIG"),"CONFIG")</f>
@@ -6354,17 +6342,17 @@
       </c>
       <c r="E124" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A124,"_",B124,"_",IFERROR(MID(C124,FIND(":",C124)+1,LEN(C124)-FIND(":",C124)),C124),".","xml"),"-","_")</f>
-        <v>ni_ospf_network_type.xml</v>
+        <v>ni_ospf_passive.xml</v>
       </c>
       <c r="F124" s="8" t="str">
         <f aca="false">CONCATENATE(A124,"_",B124,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="12" t="s">
@@ -6379,14 +6367,14 @@
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C125" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G125,"/",REPT(" ","500")),500))</f>
-        <v>passive</v>
+        <v>interface</v>
       </c>
       <c r="D125" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G125),"STATE","CONFIG"),"CONFIG")</f>
@@ -6394,17 +6382,17 @@
       </c>
       <c r="E125" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A125,"_",B125,"_",IFERROR(MID(C125,FIND(":",C125)+1,LEN(C125)-FIND(":",C125)),C125),".","xml"),"-","_")</f>
-        <v>ni_ospf_passive.xml</v>
+        <v>ni_ospf_interface.xml</v>
       </c>
       <c r="F125" s="8" t="str">
         <f aca="false">CONCATENATE(A125,"_",B125,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="12" t="s">
@@ -6417,16 +6405,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C126" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G126,"/",REPT(" ","500")),500))</f>
-        <v>interface</v>
+        <v>subinterface</v>
       </c>
       <c r="D126" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G126),"STATE","CONFIG"),"CONFIG")</f>
@@ -6434,19 +6422,21 @@
       </c>
       <c r="E126" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A126,"_",B126,"_",IFERROR(MID(C126,FIND(":",C126)+1,LEN(C126)-FIND(":",C126)),C126),".","xml"),"-","_")</f>
-        <v>ni_ospf_interface.xml</v>
+        <v>ni_ospf_subinterface.xml</v>
       </c>
       <c r="F126" s="8" t="str">
         <f aca="false">CONCATENATE(A126,"_",B126,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I126" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>207</v>
+      </c>
       <c r="J126" s="12" t="s">
         <v>16</v>
       </c>
@@ -6454,19 +6444,19 @@
         <v>16</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C127" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G127,"/",REPT(" ","500")),500))</f>
-        <v>subinterface</v>
+        <v>router-id</v>
       </c>
       <c r="D127" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G127),"STATE","CONFIG"),"CONFIG")</f>
@@ -6474,21 +6464,19 @@
       </c>
       <c r="E127" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A127,"_",B127,"_",IFERROR(MID(C127,FIND(":",C127)+1,LEN(C127)-FIND(":",C127)),C127),".","xml"),"-","_")</f>
-        <v>ni_ospf_subinterface.xml</v>
+        <v>ni_ospf_router_id.xml</v>
       </c>
       <c r="F127" s="8" t="str">
         <f aca="false">CONCATENATE(A127,"_",B127,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>206</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I127" s="11"/>
       <c r="J127" s="12" t="s">
         <v>16</v>
       </c>
@@ -6496,37 +6484,33 @@
         <v>16</v>
       </c>
       <c r="L127" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C128" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G128,"/",REPT(" ","500")),500))</f>
-        <v>router-id</v>
-      </c>
-      <c r="D128" s="8" t="str">
-        <f aca="false">IFERROR(IF(SEARCH("state/",G128),"STATE","CONFIG"),"CONFIG")</f>
-        <v>CONFIG</v>
-      </c>
-      <c r="E128" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A128,"_",B128,"_",IFERROR(MID(C128,FIND(":",C128)+1,LEN(C128)-FIND(":",C128)),C128),".","xml"),"-","_")</f>
-        <v>ni_ospf_router_id.xml</v>
-      </c>
-      <c r="F128" s="8" t="str">
-        <f aca="false">CONCATENATE(A128,"_",B128,".yml")</f>
-        <v>ni_ospf.yml</v>
+        <v>209</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>137</v>
+        <v>214</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="12" t="s">
@@ -6541,28 +6525,31 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>210</v>
+      <c r="C129" s="8" t="str">
+        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G129,"/",REPT(" ","500")),500))</f>
+        <v>metric</v>
+      </c>
+      <c r="D129" s="8" t="str">
+        <f aca="false">IFERROR(IF(SEARCH("state/",G129),"STATE","CONFIG"),"CONFIG")</f>
+        <v>CONFIG</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="F129" s="8" t="str">
+        <f aca="false">CONCATENATE(A129,"_",B129,".yml")</f>
+        <v>ni_static.yml</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H129" s="22" t="s">
-        <v>137</v>
+        <v>216</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="12" t="s">
@@ -6575,210 +6562,213 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C130" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G130,"/",REPT(" ","500")),500))</f>
-        <v>metric</v>
-      </c>
-      <c r="D130" s="8" t="str">
+    <row r="130" s="23" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D130" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G130),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F130" s="8" t="str">
+      <c r="E130" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F130" s="18" t="str">
         <f aca="false">CONCATENATE(A130,"_",B130,".yml")</f>
         <v>ni_static.yml</v>
       </c>
-      <c r="G130" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I130" s="11"/>
-      <c r="J130" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K130" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L130" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" s="21" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="D131" s="16" t="str">
-        <f aca="false">IFERROR(IF(SEARCH("state/",G131),"STATE","CONFIG"),"CONFIG")</f>
-        <v>CONFIG</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F131" s="16" t="str">
-        <f aca="false">CONCATENATE(A131,"_",B131,".yml")</f>
-        <v>ni_static.yml</v>
-      </c>
-      <c r="G131" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H131" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K131" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L131" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" s="21" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="16" t="s">
+      <c r="G130" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C132" s="16" t="s">
+      <c r="H130" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I130" s="21"/>
+      <c r="J130" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L130" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" s="23" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D132" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="E132" s="16" t="s">
+      <c r="C131" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F132" s="16" t="s">
+      <c r="D131" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G132" s="17" t="s">
+      <c r="F131" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H132" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I132" s="19" t="s">
+      <c r="G131" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="J132" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K132" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L132" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" s="21" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C133" s="23" t="s">
+      <c r="H131" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I131" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D133" s="16" t="str">
+      <c r="J131" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K131" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L131" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" s="23" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D132" s="18" t="str">
+        <f aca="false">IFERROR(IF(SEARCH("state/",G132),"STATE","CONFIG"),"CONFIG")</f>
+        <v>CONFIG</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" s="18" t="str">
+        <f aca="false">CONCATENATE(A132,"_",B132,".yml")</f>
+        <v>ni_protocol_tables.yml</v>
+      </c>
+      <c r="G132" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H132" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I132" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L132" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="8" t="str">
+        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G133,"/",REPT(" ","500")),500))</f>
+        <v>default-import-policy</v>
+      </c>
+      <c r="D133" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G133),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E133" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F133" s="16" t="str">
+      <c r="E133" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F133" s="8" t="str">
         <f aca="false">CONCATENATE(A133,"_",B133,".yml")</f>
         <v>ni_protocol_tables.yml</v>
       </c>
-      <c r="G133" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H133" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I133" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J133" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K133" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L133" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G133" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K133" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L133" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C134" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G134,"/",REPT(" ","500")),500))</f>
-        <v>default-import-policy</v>
+        <v>import-policy</v>
       </c>
       <c r="D134" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G134),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E134" s="8" t="s">
-        <v>229</v>
+      <c r="E134" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A134,"_",B134,"_",IFERROR(MID(C134,FIND(":",C134)+1,LEN(C134)-FIND(":",C134)),C134),".","xml"),"-","_")</f>
+        <v>ni_protocol_tables_import_policy.xml</v>
       </c>
       <c r="F134" s="8" t="str">
         <f aca="false">CONCATENATE(A134,"_",B134,".yml")</f>
         <v>ni_protocol_tables.yml</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I134" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="J134" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C135" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G135,"/",REPT(" ","500")),500))</f>
-        <v>import-policy</v>
+        <v>name</v>
       </c>
       <c r="D135" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G135),"STATE","CONFIG"),"CONFIG")</f>
@@ -6786,41 +6776,39 @@
       </c>
       <c r="E135" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A135,"_",B135,"_",IFERROR(MID(C135,FIND(":",C135)+1,LEN(C135)-FIND(":",C135)),C135),".","xml"),"-","_")</f>
-        <v>ni_protocol_tables_import_policy.xml</v>
+        <v>qos_queue_name.xml</v>
       </c>
       <c r="F135" s="8" t="str">
         <f aca="false">CONCATENATE(A135,"_",B135,".yml")</f>
-        <v>ni_protocol_tables.yml</v>
+        <v>qos_queue.yml</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>232</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I135" s="11"/>
       <c r="J135" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C136" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G136,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
+        <v>maxth</v>
       </c>
       <c r="D136" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G136),"STATE","CONFIG"),"CONFIG")</f>
@@ -6828,17 +6816,17 @@
       </c>
       <c r="E136" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A136,"_",B136,"_",IFERROR(MID(C136,FIND(":",C136)+1,LEN(C136)-FIND(":",C136)),C136),".","xml"),"-","_")</f>
-        <v>qos_queue_name.xml</v>
+        <v>qos_queue_maxth.xml</v>
       </c>
       <c r="F136" s="8" t="str">
         <f aca="false">CONCATENATE(A136,"_",B136,".yml")</f>
         <v>qos_queue.yml</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="12" t="s">
@@ -6853,14 +6841,14 @@
     </row>
     <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G137,"/",REPT(" ","500")),500))</f>
-        <v>maxth</v>
+        <v>minth</v>
       </c>
       <c r="D137" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G137),"STATE","CONFIG"),"CONFIG")</f>
@@ -6868,17 +6856,17 @@
       </c>
       <c r="E137" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A137,"_",B137,"_",IFERROR(MID(C137,FIND(":",C137)+1,LEN(C137)-FIND(":",C137)),C137),".","xml"),"-","_")</f>
-        <v>qos_queue_maxth.xml</v>
+        <v>qos_queue_minth.xml</v>
       </c>
       <c r="F137" s="8" t="str">
         <f aca="false">CONCATENATE(A137,"_",B137,".yml")</f>
         <v>qos_queue.yml</v>
       </c>
       <c r="G137" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H137" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="12" t="s">
@@ -6893,32 +6881,31 @@
     </row>
     <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C138" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G138,"/",REPT(" ","500")),500))</f>
-        <v>minth</v>
+        <v>name</v>
       </c>
       <c r="D138" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G138),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E138" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A138,"_",B138,"_",IFERROR(MID(C138,FIND(":",C138)+1,LEN(C138)-FIND(":",C138)),C138),".","xml"),"-","_")</f>
-        <v>qos_queue_minth.xml</v>
+      <c r="E138" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="F138" s="8" t="str">
         <f aca="false">CONCATENATE(A138,"_",B138,".yml")</f>
-        <v>qos_queue.yml</v>
+        <v>qos_scheduler.yml</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="12" t="s">
@@ -6933,31 +6920,32 @@
     </row>
     <row r="139" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C139" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G139,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
+        <v>sequence</v>
       </c>
       <c r="D139" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G139),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E139" s="8" t="s">
-        <v>240</v>
+      <c r="E139" s="8" t="str">
+        <f aca="false">SUBSTITUTE(CONCATENATE(A139,"_",B139,"_",IFERROR(MID(C139,FIND(":",C139)+1,LEN(C139)-FIND(":",C139)),C139),".","xml"),"-","_")</f>
+        <v>qos_scheduler_sequence.xml</v>
       </c>
       <c r="F139" s="8" t="str">
         <f aca="false">CONCATENATE(A139,"_",B139,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="12" t="s">
@@ -6972,14 +6960,14 @@
     </row>
     <row r="140" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C140" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G140,"/",REPT(" ","500")),500))</f>
-        <v>sequence</v>
+        <v>id</v>
       </c>
       <c r="D140" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G140),"STATE","CONFIG"),"CONFIG")</f>
@@ -6987,17 +6975,17 @@
       </c>
       <c r="E140" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A140,"_",B140,"_",IFERROR(MID(C140,FIND(":",C140)+1,LEN(C140)-FIND(":",C140)),C140),".","xml"),"-","_")</f>
-        <v>qos_scheduler_sequence.xml</v>
+        <v>qos_scheduler_id.xml</v>
       </c>
       <c r="F140" s="8" t="str">
         <f aca="false">CONCATENATE(A140,"_",B140,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="12" t="s">
@@ -7010,16 +6998,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C141" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G141,"/",REPT(" ","500")),500))</f>
-        <v>id</v>
+        <v>queue</v>
       </c>
       <c r="D141" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G141),"STATE","CONFIG"),"CONFIG")</f>
@@ -7027,19 +7015,21 @@
       </c>
       <c r="E141" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A141,"_",B141,"_",IFERROR(MID(C141,FIND(":",C141)+1,LEN(C141)-FIND(":",C141)),C141),".","xml"),"-","_")</f>
-        <v>qos_scheduler_id.xml</v>
+        <v>qos_scheduler_queue.xml</v>
       </c>
       <c r="F141" s="8" t="str">
         <f aca="false">CONCATENATE(A141,"_",B141,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="I141" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="J141" s="12" t="s">
         <v>16</v>
       </c>
@@ -7047,19 +7037,19 @@
         <v>16</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C142" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G142,"/",REPT(" ","500")),500))</f>
-        <v>queue</v>
+        <v>weight</v>
       </c>
       <c r="D142" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G142),"STATE","CONFIG"),"CONFIG")</f>
@@ -7067,21 +7057,19 @@
       </c>
       <c r="E142" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A142,"_",B142,"_",IFERROR(MID(C142,FIND(":",C142)+1,LEN(C142)-FIND(":",C142)),C142),".","xml"),"-","_")</f>
-        <v>qos_scheduler_queue.xml</v>
+        <v>qos_scheduler_weight.xml</v>
       </c>
       <c r="F142" s="8" t="str">
         <f aca="false">CONCATENATE(A142,"_",B142,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="I142" s="13" t="s">
-        <v>245</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I142" s="11"/>
       <c r="J142" s="12" t="s">
         <v>16</v>
       </c>
@@ -7089,19 +7077,19 @@
         <v>16</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C143" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G143,"/",REPT(" ","500")),500))</f>
-        <v>weight</v>
+        <v>cir</v>
       </c>
       <c r="D143" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G143),"STATE","CONFIG"),"CONFIG")</f>
@@ -7109,17 +7097,17 @@
       </c>
       <c r="E143" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A143,"_",B143,"_",IFERROR(MID(C143,FIND(":",C143)+1,LEN(C143)-FIND(":",C143)),C143),".","xml"),"-","_")</f>
-        <v>qos_scheduler_weight.xml</v>
+        <v>qos_scheduler_cir.xml</v>
       </c>
       <c r="F143" s="8" t="str">
         <f aca="false">CONCATENATE(A143,"_",B143,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I143" s="11"/>
       <c r="J143" s="12" t="s">
@@ -7134,14 +7122,14 @@
     </row>
     <row r="144" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C144" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G144,"/",REPT(" ","500")),500))</f>
-        <v>cir</v>
+        <v>bc</v>
       </c>
       <c r="D144" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G144),"STATE","CONFIG"),"CONFIG")</f>
@@ -7149,17 +7137,17 @@
       </c>
       <c r="E144" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A144,"_",B144,"_",IFERROR(MID(C144,FIND(":",C144)+1,LEN(C144)-FIND(":",C144)),C144),".","xml"),"-","_")</f>
-        <v>qos_scheduler_cir.xml</v>
+        <v>qos_scheduler_bc.xml</v>
       </c>
       <c r="F144" s="8" t="str">
         <f aca="false">CONCATENATE(A144,"_",B144,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="12" t="s">
@@ -7174,14 +7162,14 @@
     </row>
     <row r="145" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C145" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G145,"/",REPT(" ","500")),500))</f>
-        <v>bc</v>
+        <v>max-queue-depth-bytes</v>
       </c>
       <c r="D145" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G145),"STATE","CONFIG"),"CONFIG")</f>
@@ -7189,17 +7177,17 @@
       </c>
       <c r="E145" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A145,"_",B145,"_",IFERROR(MID(C145,FIND(":",C145)+1,LEN(C145)-FIND(":",C145)),C145),".","xml"),"-","_")</f>
-        <v>qos_scheduler_bc.xml</v>
+        <v>qos_scheduler_max_queue_depth_bytes.xml</v>
       </c>
       <c r="F145" s="8" t="str">
         <f aca="false">CONCATENATE(A145,"_",B145,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="12" t="s">
@@ -7212,16 +7200,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C146" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G146,"/",REPT(" ","500")),500))</f>
-        <v>max-queue-depth-bytes</v>
+        <v>oc-bgp-pol:ext-community-member</v>
       </c>
       <c r="D146" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G146),"STATE","CONFIG"),"CONFIG")</f>
@@ -7229,17 +7217,17 @@
       </c>
       <c r="E146" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A146,"_",B146,"_",IFERROR(MID(C146,FIND(":",C146)+1,LEN(C146)-FIND(":",C146)),C146),".","xml"),"-","_")</f>
-        <v>qos_scheduler_max_queue_depth_bytes.xml</v>
+        <v>rp_community_def_ext_community_member.xml</v>
       </c>
       <c r="F146" s="8" t="str">
         <f aca="false">CONCATENATE(A146,"_",B146,".yml")</f>
-        <v>qos_scheduler.yml</v>
+        <v>rp_community_def.yml</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="12" t="s">
@@ -7254,14 +7242,14 @@
     </row>
     <row r="147" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C147" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G147,"/",REPT(" ","500")),500))</f>
-        <v>oc-bgp-pol:ext-community-member</v>
+        <v>oc-bgp-pol:ext-community-set-name</v>
       </c>
       <c r="D147" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G147),"STATE","CONFIG"),"CONFIG")</f>
@@ -7269,17 +7257,17 @@
       </c>
       <c r="E147" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A147,"_",B147,"_",IFERROR(MID(C147,FIND(":",C147)+1,LEN(C147)-FIND(":",C147)),C147),".","xml"),"-","_")</f>
-        <v>rp_community_def_ext_community_member.xml</v>
+        <v>rp_community_def_ext_community_set_name.xml</v>
       </c>
       <c r="F147" s="8" t="str">
         <f aca="false">CONCATENATE(A147,"_",B147,".yml")</f>
         <v>rp_community_def.yml</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="12" t="s">
@@ -7292,16 +7280,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C148" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G148,"/",REPT(" ","500")),500))</f>
-        <v>oc-bgp-pol:ext-community-set-name</v>
+        <v>name</v>
       </c>
       <c r="D148" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G148),"STATE","CONFIG"),"CONFIG")</f>
@@ -7309,17 +7297,17 @@
       </c>
       <c r="E148" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A148,"_",B148,"_",IFERROR(MID(C148,FIND(":",C148)+1,LEN(C148)-FIND(":",C148)),C148),".","xml"),"-","_")</f>
-        <v>rp_community_def_ext_community_set_name.xml</v>
+        <v>rp_policy_def_name.xml</v>
       </c>
       <c r="F148" s="8" t="str">
         <f aca="false">CONCATENATE(A148,"_",B148,".yml")</f>
-        <v>rp_community_def.yml</v>
+        <v>rp_policy_def.yml</v>
       </c>
       <c r="G148" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H148" s="10" t="s">
         <v>254</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="12" t="s">
@@ -7334,14 +7322,14 @@
     </row>
     <row r="149" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C149" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G149,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
+        <v>policy-result</v>
       </c>
       <c r="D149" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G149),"STATE","CONFIG"),"CONFIG")</f>
@@ -7349,17 +7337,17 @@
       </c>
       <c r="E149" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A149,"_",B149,"_",IFERROR(MID(C149,FIND(":",C149)+1,LEN(C149)-FIND(":",C149)),C149),".","xml"),"-","_")</f>
-        <v>rp_policy_def_name.xml</v>
+        <v>rp_policy_def_policy_result.xml</v>
       </c>
       <c r="F149" s="8" t="str">
         <f aca="false">CONCATENATE(A149,"_",B149,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="12" t="s">
@@ -7374,14 +7362,14 @@
     </row>
     <row r="150" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C150" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G150,"/",REPT(" ","500")),500))</f>
-        <v>policy-result</v>
+        <v>install-protocol-eq</v>
       </c>
       <c r="D150" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G150),"STATE","CONFIG"),"CONFIG")</f>
@@ -7389,17 +7377,17 @@
       </c>
       <c r="E150" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A150,"_",B150,"_",IFERROR(MID(C150,FIND(":",C150)+1,LEN(C150)-FIND(":",C150)),C150),".","xml"),"-","_")</f>
-        <v>rp_policy_def_policy_result.xml</v>
+        <v>rp_policy_def_install_protocol_eq.xml</v>
       </c>
       <c r="F150" s="8" t="str">
         <f aca="false">CONCATENATE(A150,"_",B150,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="12" t="s">
@@ -7412,16 +7400,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C151" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G151,"/",REPT(" ","500")),500))</f>
-        <v>install-protocol-eq</v>
+        <v>oc-bgp-pol:ext-community-set</v>
       </c>
       <c r="D151" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G151),"STATE","CONFIG"),"CONFIG")</f>
@@ -7429,17 +7417,17 @@
       </c>
       <c r="E151" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A151,"_",B151,"_",IFERROR(MID(C151,FIND(":",C151)+1,LEN(C151)-FIND(":",C151)),C151),".","xml"),"-","_")</f>
-        <v>rp_policy_def_install_protocol_eq.xml</v>
+        <v>rp_policy_def_ext_community_set.xml</v>
       </c>
       <c r="F151" s="8" t="str">
         <f aca="false">CONCATENATE(A151,"_",B151,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="12" t="s">
@@ -7449,19 +7437,26 @@
         <v>16</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O151" s="0" t="n">
+        <f aca="false">COUNTIF($L$2:$L$153,N151)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C152" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G152,"/",REPT(" ","500")),500))</f>
-        <v>oc-bgp-pol:ext-community-set</v>
+        <v>oc-bgp-pol:match-set-options</v>
       </c>
       <c r="D152" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G152),"STATE","CONFIG"),"CONFIG")</f>
@@ -7469,19 +7464,21 @@
       </c>
       <c r="E152" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A152,"_",B152,"_",IFERROR(MID(C152,FIND(":",C152)+1,LEN(C152)-FIND(":",C152)),C152),".","xml"),"-","_")</f>
-        <v>rp_policy_def_ext_community_set.xml</v>
+        <v>rp_policy_def_match_set_options.xml</v>
       </c>
       <c r="F152" s="8" t="str">
         <f aca="false">CONCATENATE(A152,"_",B152,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I152" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="I152" s="13" t="s">
+        <v>262</v>
+      </c>
       <c r="J152" s="12" t="s">
         <v>16</v>
       </c>
@@ -7492,23 +7489,23 @@
         <v>42</v>
       </c>
       <c r="N152" s="0" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="O152" s="0" t="n">
-        <f aca="false">COUNTIF($L$2:$L$154,N152)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">COUNTIF($L$2:$L$153,N152)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C153" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G153,"/",REPT(" ","500")),500))</f>
-        <v>oc-bgp-pol:match-set-options</v>
+        <v>name</v>
       </c>
       <c r="D153" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G153),"STATE","CONFIG"),"CONFIG")</f>
@@ -7516,20 +7513,20 @@
       </c>
       <c r="E153" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A153,"_",B153,"_",IFERROR(MID(C153,FIND(":",C153)+1,LEN(C153)-FIND(":",C153)),C153),".","xml"),"-","_")</f>
-        <v>rp_policy_def_match_set_options.xml</v>
+        <v>rp_policy_def_name.xml</v>
       </c>
       <c r="F153" s="8" t="str">
         <f aca="false">CONCATENATE(A153,"_",B153,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
+      </c>
+      <c r="I153" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="J153" s="12" t="s">
         <v>16</v>
@@ -7538,74 +7535,26 @@
         <v>16</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="O153" s="0" t="n">
-        <f aca="false">COUNTIF($L$2:$L$154,N153)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C154" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G154,"/",REPT(" ","500")),500))</f>
-        <v>name</v>
-      </c>
-      <c r="D154" s="8" t="str">
-        <f aca="false">IFERROR(IF(SEARCH("state/",G154),"STATE","CONFIG"),"CONFIG")</f>
-        <v>CONFIG</v>
-      </c>
-      <c r="E154" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A154,"_",B154,"_",IFERROR(MID(C154,FIND(":",C154)+1,LEN(C154)-FIND(":",C154)),C154),".","xml"),"-","_")</f>
-        <v>rp_policy_def_name.xml</v>
-      </c>
-      <c r="F154" s="8" t="str">
-        <f aca="false">CONCATENATE(A154,"_",B154,".yml")</f>
-        <v>rp_policy_def.yml</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="J154" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K154" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L154" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N154" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="O154" s="0" t="n">
-        <f aca="false">COUNTIF($L$2:$L$154,N154)</f>
+        <f aca="false">COUNTIF($L$2:$L$153,N153)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="G2:G154">
+  <conditionalFormatting sqref="G2:G153">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -7624,26 +7573,26 @@
     <hyperlink ref="I56" r:id="rId12" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
     <hyperlink ref="I57" r:id="rId13" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
     <hyperlink ref="I58" r:id="rId14" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
-    <hyperlink ref="I60" r:id="rId15" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
-    <hyperlink ref="I61" r:id="rId16" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
-    <hyperlink ref="I70" r:id="rId17" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
-    <hyperlink ref="I71" r:id="rId18" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
-    <hyperlink ref="I73" r:id="rId19" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
-    <hyperlink ref="I74" r:id="rId20" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
-    <hyperlink ref="I98" r:id="rId21" display="https://github.com/sbarguil/Testing-framework/issues/59"/>
-    <hyperlink ref="I99" r:id="rId22" display="https://github.com/sbarguil/Testing-framework/issues/59"/>
-    <hyperlink ref="I101" r:id="rId23" display="https://github.com/sbarguil/Testing-framework/issues/58"/>
-    <hyperlink ref="I102" r:id="rId24" display="https://github.com/sbarguil/Testing-framework/issues/58"/>
-    <hyperlink ref="I103" r:id="rId25" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
-    <hyperlink ref="I104" r:id="rId26" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
-    <hyperlink ref="I105" r:id="rId27" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
-    <hyperlink ref="I106" r:id="rId28" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
-    <hyperlink ref="I109" r:id="rId29" display="https://github.com/sbarguil/Testing-framework/issues/57"/>
-    <hyperlink ref="I110" r:id="rId30" display="https://github.com/sbarguil/Testing-framework/issues/57"/>
-    <hyperlink ref="I127" r:id="rId31" display="https://github.com/sbarguil/Testing-framework/issues/62"/>
-    <hyperlink ref="I135" r:id="rId32" display="https://github.com/sbarguil/Testing-framework/issues/65"/>
-    <hyperlink ref="I142" r:id="rId33" display="https://github.com/sbarguil/Testing-framework/issues/68"/>
-    <hyperlink ref="I153" r:id="rId34" display=" "/>
+    <hyperlink ref="I59" r:id="rId15" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
+    <hyperlink ref="I60" r:id="rId16" display="https://github.com/sbarguil/Testing-framework/issues/31"/>
+    <hyperlink ref="I69" r:id="rId17" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
+    <hyperlink ref="I70" r:id="rId18" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
+    <hyperlink ref="I72" r:id="rId19" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
+    <hyperlink ref="I73" r:id="rId20" display="https://github.com/sbarguil/Testing-framework/issues/47"/>
+    <hyperlink ref="I97" r:id="rId21" display="https://github.com/sbarguil/Testing-framework/issues/59"/>
+    <hyperlink ref="I98" r:id="rId22" display="https://github.com/sbarguil/Testing-framework/issues/59"/>
+    <hyperlink ref="I100" r:id="rId23" display="https://github.com/sbarguil/Testing-framework/issues/58"/>
+    <hyperlink ref="I101" r:id="rId24" display="https://github.com/sbarguil/Testing-framework/issues/58"/>
+    <hyperlink ref="I102" r:id="rId25" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
+    <hyperlink ref="I103" r:id="rId26" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
+    <hyperlink ref="I104" r:id="rId27" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
+    <hyperlink ref="I105" r:id="rId28" display="https://github.com/sbarguil/Testing-framework/issues/55"/>
+    <hyperlink ref="I108" r:id="rId29" display="https://github.com/sbarguil/Testing-framework/issues/57"/>
+    <hyperlink ref="I109" r:id="rId30" display="https://github.com/sbarguil/Testing-framework/issues/57"/>
+    <hyperlink ref="I126" r:id="rId31" display="https://github.com/sbarguil/Testing-framework/issues/62"/>
+    <hyperlink ref="I134" r:id="rId32" display="https://github.com/sbarguil/Testing-framework/issues/65"/>
+    <hyperlink ref="I141" r:id="rId33" display="https://github.com/sbarguil/Testing-framework/issues/68"/>
+    <hyperlink ref="I152" r:id="rId34" display=" "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7679,9 +7628,9 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="24" t="str">
+        <v>100</v>
+      </c>
+      <c r="B2" s="26" t="str">
         <f aca="false">MID(RIGHT(A2,15),FIND("/",RIGHT(A2,15))+1,LEN(RIGHT(A2,15))-FIND("/",RIGHT(A2,15)))</f>
         <v>oc-tun:dst</v>
       </c>
@@ -7703,7 +7652,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="25" t="e">
+      <c r="B8" s="27" t="e">
         <f aca="false">espacios(derecha(sustituir(A1,"/",repetir(" ","500")),500))</f>
         <v>#NAME?</v>
       </c>
@@ -7715,8 +7664,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>265</v>
+      <c r="A20" s="26" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
+++ b/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="270">
   <si>
     <t xml:space="preserve">TEST BLOCK</t>
   </si>
@@ -220,9 +220,15 @@
     <t xml:space="preserve">/components/component/port/oc-port:breakout-mode/oc-port:config/oc-port:num-channels</t>
   </si>
   <si>
+    <t xml:space="preserve">hw_port_channel_speed_state.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">/components/component/port/oc-port:breakout-mode/oc-port:state/oc-port:channel-speed</t>
   </si>
   <si>
+    <t xml:space="preserve">hw_port_num_channels_state.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">/components/component/port/oc-port:breakout-mode/oc-port:state/oc-port:num-channels</t>
   </si>
   <si>
@@ -427,10 +433,10 @@
     <t xml:space="preserve">/interfaces/interface/state/oper-status</t>
   </si>
   <si>
+    <t xml:space="preserve">/interfaces/interface/state/type</t>
+  </si>
+  <si>
     <t xml:space="preserve">subif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/interfaces/interface/state/type</t>
   </si>
   <si>
     <t xml:space="preserve">/interfaces/interface/subinterfaces/subinterface/config/description</t>
@@ -813,6 +819,9 @@
     <t xml:space="preserve">/network-instances/network-instance/table-connections/table-connection/config/default-import-policy</t>
   </si>
   <si>
+    <t xml:space="preserve">ni_protocol_tables_connection_import_policy.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">/network-instances/network-instance/table-connections/table-connection/config/import-policy</t>
   </si>
   <si>
@@ -925,7 +934,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -978,12 +987,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1206,7 +1209,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,11 +1217,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,8 +1337,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2074,7 +2077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -2089,16 +2092,15 @@
         <f aca="false">IFERROR(IF(SEARCH("state/",G19),"STATE","CONFIG"),"CONFIG")</f>
         <v>STATE</v>
       </c>
-      <c r="E19" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A19,"_",B19,"_",IFERROR(MID(C19,FIND(":",C19)+1,LEN(C19)-FIND(":",C19)),C19),".","xml"),"-","_")</f>
-        <v>hw_port_channel_speed.xml</v>
+      <c r="E19" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F19" s="8" t="str">
         <f aca="false">CONCATENATE(A19,"_",B19,".yml")</f>
         <v>hw_port.yml</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>15</v>
@@ -2114,7 +2116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -2129,16 +2131,15 @@
         <f aca="false">IFERROR(IF(SEARCH("state/",G20),"STATE","CONFIG"),"CONFIG")</f>
         <v>STATE</v>
       </c>
-      <c r="E20" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A20,"_",B20,"_",IFERROR(MID(C20,FIND(":",C20)+1,LEN(C20)-FIND(":",C20)),C20),".","xml"),"-","_")</f>
-        <v>hw_port_num_channels.xml</v>
+      <c r="E20" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="8" t="str">
         <f aca="false">CONCATENATE(A20,"_",B20,".yml")</f>
         <v>hw_port.yml</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>15</v>
@@ -2159,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G21,"/",REPT(" ","500")),500))</f>
@@ -2178,7 +2179,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>15</v>
@@ -2199,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G22,"/",REPT(" ","500")),500))</f>
@@ -2218,7 +2219,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>15</v>
@@ -2239,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G23,"/",REPT(" ","500")),500))</f>
@@ -2250,14 +2251,14 @@
         <v>STATE</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="8" t="str">
         <f aca="false">CONCATENATE(A23,"_",B23,".yml")</f>
         <v>hw_psu.yml</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>15</v>
@@ -2278,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G24,"/",REPT(" ","500")),500))</f>
@@ -2297,7 +2298,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>15</v>
@@ -2318,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G25,"/",REPT(" ","500")),500))</f>
@@ -2337,7 +2338,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>15</v>
@@ -2358,7 +2359,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G26,"/",REPT(" ","500")),500))</f>
@@ -2377,7 +2378,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>15</v>
@@ -2398,7 +2399,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G27,"/",REPT(" ","500")),500))</f>
@@ -2417,7 +2418,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>15</v>
@@ -2438,7 +2439,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G28,"/",REPT(" ","500")),500))</f>
@@ -2457,7 +2458,7 @@
         <v>hw_psu.yml</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>15</v>
@@ -2478,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G29,"/",REPT(" ","500")),500))</f>
@@ -2497,7 +2498,7 @@
         <v>hw_properties.yml</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>15</v>
@@ -2518,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G30,"/",REPT(" ","500")),500))</f>
@@ -2537,7 +2538,7 @@
         <v>hw_properties.yml</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>15</v>
@@ -2558,7 +2559,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G31,"/",REPT(" ","500")),500))</f>
@@ -2577,7 +2578,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>15</v>
@@ -2598,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C32" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G32,"/",REPT(" ","500")),500))</f>
@@ -2617,7 +2618,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>15</v>
@@ -2638,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C33" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G33,"/",REPT(" ","500")),500))</f>
@@ -2657,7 +2658,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>15</v>
@@ -2678,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G34,"/",REPT(" ","500")),500))</f>
@@ -2697,7 +2698,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>15</v>
@@ -2718,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C35" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G35,"/",REPT(" ","500")),500))</f>
@@ -2737,7 +2738,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>15</v>
@@ -2758,7 +2759,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G36,"/",REPT(" ","500")),500))</f>
@@ -2777,7 +2778,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>15</v>
@@ -2798,7 +2799,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G37,"/",REPT(" ","500")),500))</f>
@@ -2817,7 +2818,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>15</v>
@@ -2838,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C38" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G38,"/",REPT(" ","500")),500))</f>
@@ -2857,7 +2858,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>15</v>
@@ -2878,7 +2879,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C39" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G39,"/",REPT(" ","500")),500))</f>
@@ -2897,7 +2898,7 @@
         <v>hw_component.yml</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>15</v>
@@ -2918,30 +2919,30 @@
         <v>12</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G40),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F40" s="8" t="str">
         <f aca="false">CONCATENATE(A40,"_",B40,".yml")</f>
         <v>hw_subcomponent.yml</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J40" s="12" t="s">
         <v>16</v>
@@ -2958,7 +2959,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C41" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G41,"/",REPT(" ","500")),500))</f>
@@ -2969,20 +2970,20 @@
         <v>STATE</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F41" s="8" t="str">
         <f aca="false">CONCATENATE(A41,"_",B41,".yml")</f>
         <v>hw_subcomponent.yml</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>16</v>
@@ -2996,7 +2997,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>13</v>
@@ -3018,7 +3019,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>15</v>
@@ -3036,7 +3037,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>13</v>
@@ -3058,7 +3059,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>15</v>
@@ -3076,7 +3077,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>13</v>
@@ -3098,13 +3099,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>16</v>
@@ -3118,7 +3119,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>13</v>
@@ -3140,7 +3141,7 @@
         <v>if_config.yml</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>15</v>
@@ -3158,7 +3159,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>13</v>
@@ -3180,13 +3181,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>17</v>
@@ -3200,7 +3201,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>13</v>
@@ -3222,13 +3223,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>16</v>
@@ -3242,7 +3243,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>13</v>
@@ -3264,13 +3265,13 @@
         <v>if_config.yml</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J48" s="12" t="s">
         <v>16</v>
@@ -3284,10 +3285,10 @@
     </row>
     <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G49,"/",REPT(" ","500")),500))</f>
@@ -3306,7 +3307,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H49" s="10" t="s">
         <v>15</v>
@@ -3324,10 +3325,10 @@
     </row>
     <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G50,"/",REPT(" ","500")),500))</f>
@@ -3346,7 +3347,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>15</v>
@@ -3364,10 +3365,10 @@
     </row>
     <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C51" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G51,"/",REPT(" ","500")),500))</f>
@@ -3386,7 +3387,7 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>15</v>
@@ -3404,10 +3405,10 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G52,"/",REPT(" ","500")),500))</f>
@@ -3426,13 +3427,13 @@
         <v>if_ethernet.yml</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J52" s="12" t="s">
         <v>16</v>
@@ -3446,10 +3447,10 @@
     </row>
     <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G53,"/",REPT(" ","500")),500))</f>
@@ -3460,14 +3461,14 @@
         <v>STATE</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F53" s="8" t="str">
         <f aca="false">CONCATENATE(A53,"_",B53,".yml")</f>
         <v>if_ethernet.yml</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" s="10" t="s">
         <v>15</v>
@@ -3485,10 +3486,10 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G54,"/",REPT(" ","500")),500))</f>
@@ -3499,20 +3500,20 @@
         <v>CONFIG</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F54" s="8" t="str">
         <f aca="false">CONCATENATE(A54,"_",B54,".yml")</f>
         <v>if_lag.yml</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H54" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J54" s="12" t="s">
         <v>16</v>
@@ -3526,10 +3527,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G55,"/",REPT(" ","500")),500))</f>
@@ -3548,13 +3549,13 @@
         <v>if_lag.yml</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H55" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J55" s="12" t="s">
         <v>16</v>
@@ -3568,10 +3569,10 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G56,"/",REPT(" ","500")),500))</f>
@@ -3590,13 +3591,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J56" s="12" t="s">
         <v>16</v>
@@ -3610,10 +3611,10 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G57,"/",REPT(" ","500")),500))</f>
@@ -3632,13 +3633,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J57" s="12" t="s">
         <v>16</v>
@@ -3652,10 +3653,10 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G58,"/",REPT(" ","500")),500))</f>
@@ -3674,13 +3675,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H58" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J58" s="12" t="s">
         <v>16</v>
@@ -3694,33 +3695,33 @@
     </row>
     <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D59" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G59),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F59" s="8" t="str">
         <f aca="false">CONCATENATE(A59,"_",B59,".yml")</f>
         <v>if_gre.yml</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H59" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J59" s="12" t="s">
         <v>16</v>
@@ -3734,10 +3735,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C60" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G60,"/",REPT(" ","500")),500))</f>
@@ -3756,13 +3757,13 @@
         <v>if_gre.yml</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H60" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J60" s="12" t="s">
         <v>16</v>
@@ -3776,10 +3777,10 @@
     </row>
     <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C61" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G61,"/",REPT(" ","500")),500))</f>
@@ -3798,7 +3799,7 @@
         <v>if_status.yml</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H61" s="10" t="s">
         <v>15</v>
@@ -3816,10 +3817,10 @@
     </row>
     <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C62" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G62,"/",REPT(" ","500")),500))</f>
@@ -3838,7 +3839,7 @@
         <v>if_status.yml</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H62" s="10" t="s">
         <v>15</v>
@@ -3856,10 +3857,10 @@
     </row>
     <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C63" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G63,"/",REPT(" ","500")),500))</f>
@@ -3878,7 +3879,7 @@
         <v>if_status.yml</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>15</v>
@@ -3896,10 +3897,10 @@
     </row>
     <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C64" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G64,"/",REPT(" ","500")),500))</f>
@@ -3918,7 +3919,7 @@
         <v>if_status.yml</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>15</v>
@@ -3934,12 +3935,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C65" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G65,"/",REPT(" ","500")),500))</f>
@@ -3951,14 +3952,14 @@
       </c>
       <c r="E65" s="8" t="str">
         <f aca="false">SUBSTITUTE(CONCATENATE(A65,"_",B65,"_",IFERROR(MID(C65,FIND(":",C65)+1,LEN(C65)-FIND(":",C65)),C65),".","xml"),"-","_")</f>
-        <v>if_subif_type.xml</v>
+        <v>if_status_type.xml</v>
       </c>
       <c r="F65" s="8" t="str">
         <f aca="false">CONCATENATE(A65,"_",B65,".yml")</f>
-        <v>if_subif.yml</v>
+        <v>if_status.yml</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H65" s="10" t="s">
         <v>15</v>
@@ -3976,10 +3977,10 @@
     </row>
     <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C66" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G66,"/",REPT(" ","500")),500))</f>
@@ -3998,7 +3999,7 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H66" s="10" t="s">
         <v>15</v>
@@ -4016,10 +4017,10 @@
     </row>
     <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C67" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G67,"/",REPT(" ","500")),500))</f>
@@ -4038,7 +4039,7 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>15</v>
@@ -4056,10 +4057,10 @@
     </row>
     <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C68" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G68,"/",REPT(" ","500")),500))</f>
@@ -4078,13 +4079,13 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H68" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J68" s="12" t="s">
         <v>17</v>
@@ -4098,10 +4099,10 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C69" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G69,"/",REPT(" ","500")),500))</f>
@@ -4112,20 +4113,20 @@
         <v>STATE</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F69" s="8" t="str">
         <f aca="false">CONCATENATE(A69,"_",B69,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G69" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J69" s="12" t="s">
         <v>16</v>
@@ -4139,10 +4140,10 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C70" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G70,"/",REPT(" ","500")),500))</f>
@@ -4161,13 +4162,13 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J70" s="12" t="s">
         <v>16</v>
@@ -4181,27 +4182,27 @@
     </row>
     <row r="71" s="23" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D71" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G71),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F71" s="18" t="str">
         <f aca="false">CONCATENATE(A71,"_",B71,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H71" s="20" t="s">
         <v>15</v>
@@ -4219,10 +4220,10 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C72" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G72,"/",REPT(" ","500")),500))</f>
@@ -4241,13 +4242,13 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J72" s="12" t="s">
         <v>16</v>
@@ -4261,10 +4262,10 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C73" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G73,"/",REPT(" ","500")),500))</f>
@@ -4283,13 +4284,13 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J73" s="12" t="s">
         <v>16</v>
@@ -4303,10 +4304,10 @@
     </row>
     <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C74" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G74,"/",REPT(" ","500")),500))</f>
@@ -4325,7 +4326,7 @@
         <v>if_subif.yml</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>15</v>
@@ -4343,33 +4344,33 @@
     </row>
     <row r="75" s="23" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D75" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G75),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F75" s="18" t="str">
         <f aca="false">CONCATENATE(A75,"_",B75,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H75" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I75" s="21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J75" s="22" t="s">
         <v>16</v>
@@ -4383,10 +4384,10 @@
     </row>
     <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C76" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G76,"/",REPT(" ","500")),500))</f>
@@ -4397,20 +4398,20 @@
         <v>CONFIG</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F76" s="8" t="str">
         <f aca="false">CONCATENATE(A76,"_",B76,".yml")</f>
         <v>if_subif.yml</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J76" s="12" t="s">
         <v>16</v>
@@ -4424,7 +4425,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>13</v>
@@ -4446,10 +4447,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="12" t="s">
@@ -4464,7 +4465,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>13</v>
@@ -4486,10 +4487,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="12" t="s">
@@ -4504,7 +4505,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>13</v>
@@ -4526,10 +4527,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G79" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="I79" s="11"/>
       <c r="J79" s="12" t="s">
@@ -4544,7 +4545,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>13</v>
@@ -4566,10 +4567,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I80" s="11"/>
       <c r="J80" s="12" t="s">
@@ -4584,7 +4585,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>13</v>
@@ -4606,13 +4607,13 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J81" s="12" t="s">
         <v>16</v>
@@ -4626,7 +4627,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>13</v>
@@ -4648,10 +4649,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="12" t="s">
@@ -4666,7 +4667,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>13</v>
@@ -4688,10 +4689,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="12" t="s">
@@ -4706,7 +4707,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>13</v>
@@ -4728,10 +4729,10 @@
         <v>ni_config.yml</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I84" s="11"/>
       <c r="J84" s="12" t="s">
@@ -4746,10 +4747,10 @@
     </row>
     <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C85" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G85,"/",REPT(" ","500")),500))</f>
@@ -4768,10 +4769,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I85" s="11"/>
       <c r="J85" s="12" t="s">
@@ -4786,10 +4787,10 @@
     </row>
     <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C86" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G86,"/",REPT(" ","500")),500))</f>
@@ -4808,10 +4809,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="12" t="s">
@@ -4826,10 +4827,10 @@
     </row>
     <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C87" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G87,"/",REPT(" ","500")),500))</f>
@@ -4848,10 +4849,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="12" t="s">
@@ -4866,10 +4867,10 @@
     </row>
     <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C88" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G88,"/",REPT(" ","500")),500))</f>
@@ -4888,10 +4889,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I88" s="11"/>
       <c r="J88" s="12" t="s">
@@ -4906,10 +4907,10 @@
     </row>
     <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C89" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G89,"/",REPT(" ","500")),500))</f>
@@ -4928,10 +4929,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I89" s="11"/>
       <c r="J89" s="12" t="s">
@@ -4946,10 +4947,10 @@
     </row>
     <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C90" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G90,"/",REPT(" ","500")),500))</f>
@@ -4968,10 +4969,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="12" t="s">
@@ -4986,10 +4987,10 @@
     </row>
     <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C91" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G91,"/",REPT(" ","500")),500))</f>
@@ -5008,10 +5009,10 @@
         <v>ni_connection_point.yml</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="12" t="s">
@@ -5026,10 +5027,10 @@
     </row>
     <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C92" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G92,"/",REPT(" ","500")),500))</f>
@@ -5048,13 +5049,13 @@
         <v>ni_encapsulation.yml</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J92" s="12" t="s">
         <v>16</v>
@@ -5068,10 +5069,10 @@
     </row>
     <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G93,"/",REPT(" ","500")),500))</f>
@@ -5090,10 +5091,10 @@
         <v>ni_encapsulation.yml</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="12" t="s">
@@ -5108,10 +5109,10 @@
     </row>
     <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C94" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G94,"/",REPT(" ","500")),500))</f>
@@ -5130,10 +5131,10 @@
         <v>ni_fdb.yml</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="12" t="s">
@@ -5148,10 +5149,10 @@
     </row>
     <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G95,"/",REPT(" ","500")),500))</f>
@@ -5170,10 +5171,10 @@
         <v>ni_fdb.yml</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="12" t="s">
@@ -5188,10 +5189,10 @@
     </row>
     <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C96" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G96,"/",REPT(" ","500")),500))</f>
@@ -5210,10 +5211,10 @@
         <v>ni_fdb.yml</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="12" t="s">
@@ -5228,10 +5229,10 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C97" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G97,"/",REPT(" ","500")),500))</f>
@@ -5250,13 +5251,13 @@
         <v>ni_rt_policy.yml</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I97" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J97" s="12" t="s">
         <v>17</v>
@@ -5270,10 +5271,10 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C98" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G98,"/",REPT(" ","500")),500))</f>
@@ -5292,13 +5293,13 @@
         <v>ni_rt_policy.yml</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J98" s="12" t="s">
         <v>17</v>
@@ -5312,10 +5313,10 @@
     </row>
     <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C99" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G99,"/",REPT(" ","500")),500))</f>
@@ -5334,10 +5335,10 @@
         <v>ni_interface.yml</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I99" s="11"/>
       <c r="J99" s="12" t="s">
@@ -5352,10 +5353,10 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C100" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G100,"/",REPT(" ","500")),500))</f>
@@ -5374,13 +5375,13 @@
         <v>ni_interface.yml</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>17</v>
@@ -5394,10 +5395,10 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C101" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G101,"/",REPT(" ","500")),500))</f>
@@ -5416,13 +5417,13 @@
         <v>ni_interface.yml</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J101" s="12" t="s">
         <v>17</v>
@@ -5436,10 +5437,10 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C102" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G102,"/",REPT(" ","500")),500))</f>
@@ -5458,13 +5459,13 @@
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J102" s="12" t="s">
         <v>16</v>
@@ -5478,10 +5479,10 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C103" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G103,"/",REPT(" ","500")),500))</f>
@@ -5500,13 +5501,13 @@
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J103" s="12" t="s">
         <v>16</v>
@@ -5520,10 +5521,10 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C104" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G104,"/",REPT(" ","500")),500))</f>
@@ -5542,13 +5543,13 @@
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G104" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I104" s="13" t="s">
         <v>176</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="J104" s="12" t="s">
         <v>16</v>
@@ -5562,10 +5563,10 @@
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C105" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G105,"/",REPT(" ","500")),500))</f>
@@ -5584,13 +5585,13 @@
         <v>ni_t_ldp.yml</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J105" s="12" t="s">
         <v>16</v>
@@ -5604,10 +5605,10 @@
     </row>
     <row r="106" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C106" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G106,"/",REPT(" ","500")),500))</f>
@@ -5626,10 +5627,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="12" t="s">
@@ -5644,10 +5645,10 @@
     </row>
     <row r="107" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C107" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G107,"/",REPT(" ","500")),500))</f>
@@ -5666,10 +5667,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I107" s="11"/>
       <c r="J107" s="12" t="s">
@@ -5684,10 +5685,10 @@
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C108" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G108,"/",REPT(" ","500")),500))</f>
@@ -5706,13 +5707,13 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J108" s="12" t="s">
         <v>16</v>
@@ -5726,10 +5727,10 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C109" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G109,"/",REPT(" ","500")),500))</f>
@@ -5748,13 +5749,13 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J109" s="12" t="s">
         <v>16</v>
@@ -5768,10 +5769,10 @@
     </row>
     <row r="110" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C110" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G110,"/",REPT(" ","500")),500))</f>
@@ -5790,10 +5791,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="12" t="s">
@@ -5808,10 +5809,10 @@
     </row>
     <row r="111" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C111" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G111,"/",REPT(" ","500")),500))</f>
@@ -5830,10 +5831,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="12" t="s">
@@ -5848,10 +5849,10 @@
     </row>
     <row r="112" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C112" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G112,"/",REPT(" ","500")),500))</f>
@@ -5870,10 +5871,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="12" t="s">
@@ -5888,10 +5889,10 @@
     </row>
     <row r="113" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C113" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G113,"/",REPT(" ","500")),500))</f>
@@ -5910,10 +5911,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="12" t="s">
@@ -5928,10 +5929,10 @@
     </row>
     <row r="114" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C114" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G114,"/",REPT(" ","500")),500))</f>
@@ -5950,10 +5951,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="12" t="s">
@@ -5968,10 +5969,10 @@
     </row>
     <row r="115" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C115" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G115,"/",REPT(" ","500")),500))</f>
@@ -5990,10 +5991,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="12" t="s">
@@ -6008,10 +6009,10 @@
     </row>
     <row r="116" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C116" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G116,"/",REPT(" ","500")),500))</f>
@@ -6030,10 +6031,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="12" t="s">
@@ -6048,10 +6049,10 @@
     </row>
     <row r="117" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C117" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G117,"/",REPT(" ","500")),500))</f>
@@ -6070,10 +6071,10 @@
         <v>ni_bgp.yml</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I117" s="11"/>
       <c r="J117" s="12" t="s">
@@ -6088,10 +6089,10 @@
     </row>
     <row r="118" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C118" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G118,"/",REPT(" ","500")),500))</f>
@@ -6110,10 +6111,10 @@
         <v>ni_protocol_instances.yml</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="12" t="s">
@@ -6128,33 +6129,33 @@
     </row>
     <row r="119" s="23" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D119" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G119),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F119" s="18" t="str">
         <f aca="false">CONCATENATE(A119,"_",B119,".yml")</f>
         <v>ni_protocol_instances.yml</v>
       </c>
       <c r="G119" s="19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J119" s="22" t="s">
         <v>16</v>
@@ -6168,10 +6169,10 @@
     </row>
     <row r="120" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C120" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G120,"/",REPT(" ","500")),500))</f>
@@ -6190,10 +6191,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="12" t="s">
@@ -6208,10 +6209,10 @@
     </row>
     <row r="121" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C121" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G121,"/",REPT(" ","500")),500))</f>
@@ -6222,17 +6223,17 @@
         <v>CONFIG</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F121" s="8" t="str">
         <f aca="false">CONCATENATE(A121,"_",B121,".yml")</f>
         <v>ni_ospf.yml</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="12" t="s">
@@ -6247,10 +6248,10 @@
     </row>
     <row r="122" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C122" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G122,"/",REPT(" ","500")),500))</f>
@@ -6269,10 +6270,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="12" t="s">
@@ -6287,10 +6288,10 @@
     </row>
     <row r="123" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C123" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G123,"/",REPT(" ","500")),500))</f>
@@ -6309,10 +6310,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="12" t="s">
@@ -6327,10 +6328,10 @@
     </row>
     <row r="124" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C124" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G124,"/",REPT(" ","500")),500))</f>
@@ -6349,10 +6350,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="12" t="s">
@@ -6367,10 +6368,10 @@
     </row>
     <row r="125" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C125" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G125,"/",REPT(" ","500")),500))</f>
@@ -6389,10 +6390,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="12" t="s">
@@ -6407,10 +6408,10 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C126" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G126,"/",REPT(" ","500")),500))</f>
@@ -6429,13 +6430,13 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J126" s="12" t="s">
         <v>16</v>
@@ -6449,10 +6450,10 @@
     </row>
     <row r="127" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C127" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G127,"/",REPT(" ","500")),500))</f>
@@ -6471,10 +6472,10 @@
         <v>ni_ospf.yml</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I127" s="11"/>
       <c r="J127" s="12" t="s">
@@ -6489,28 +6490,28 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H128" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I128" s="11"/>
       <c r="J128" s="12" t="s">
@@ -6525,10 +6526,10 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C129" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G129,"/",REPT(" ","500")),500))</f>
@@ -6539,17 +6540,17 @@
         <v>CONFIG</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F129" s="8" t="str">
         <f aca="false">CONCATENATE(A129,"_",B129,".yml")</f>
         <v>ni_static.yml</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I129" s="11"/>
       <c r="J129" s="12" t="s">
@@ -6564,30 +6565,30 @@
     </row>
     <row r="130" s="23" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D130" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G130),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E130" s="18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F130" s="18" t="str">
         <f aca="false">CONCATENATE(A130,"_",B130,".yml")</f>
         <v>ni_static.yml</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H130" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I130" s="21"/>
       <c r="J130" s="22" t="s">
@@ -6602,31 +6603,31 @@
     </row>
     <row r="131" s="23" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E131" s="18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J131" s="22" t="s">
         <v>16</v>
@@ -6640,33 +6641,33 @@
     </row>
     <row r="132" s="23" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D132" s="18" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G132),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
       <c r="E132" s="18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F132" s="18" t="str">
         <f aca="false">CONCATENATE(A132,"_",B132,".yml")</f>
         <v>ni_protocol_tables.yml</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H132" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J132" s="22" t="s">
         <v>16</v>
@@ -6680,10 +6681,10 @@
     </row>
     <row r="133" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G133,"/",REPT(" ","500")),500))</f>
@@ -6694,17 +6695,17 @@
         <v>CONFIG</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F133" s="8" t="str">
         <f aca="false">CONCATENATE(A133,"_",B133,".yml")</f>
         <v>ni_protocol_tables.yml</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I133" s="11"/>
       <c r="J133" s="12" t="s">
@@ -6717,12 +6718,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C134" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G134,"/",REPT(" ","500")),500))</f>
@@ -6732,22 +6733,21 @@
         <f aca="false">IFERROR(IF(SEARCH("state/",G134),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E134" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A134,"_",B134,"_",IFERROR(MID(C134,FIND(":",C134)+1,LEN(C134)-FIND(":",C134)),C134),".","xml"),"-","_")</f>
-        <v>ni_protocol_tables_import_policy.xml</v>
+      <c r="E134" s="0" t="s">
+        <v>234</v>
       </c>
       <c r="F134" s="8" t="str">
         <f aca="false">CONCATENATE(A134,"_",B134,".yml")</f>
         <v>ni_protocol_tables.yml</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J134" s="12" t="s">
         <v>16</v>
@@ -6761,10 +6761,10 @@
     </row>
     <row r="135" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C135" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G135,"/",REPT(" ","500")),500))</f>
@@ -6783,10 +6783,10 @@
         <v>qos_queue.yml</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I135" s="11"/>
       <c r="J135" s="12" t="s">
@@ -6801,10 +6801,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C136" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G136,"/",REPT(" ","500")),500))</f>
@@ -6823,10 +6823,10 @@
         <v>qos_queue.yml</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="12" t="s">
@@ -6841,10 +6841,10 @@
     </row>
     <row r="137" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C137" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G137,"/",REPT(" ","500")),500))</f>
@@ -6863,10 +6863,10 @@
         <v>qos_queue.yml</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I137" s="11"/>
       <c r="J137" s="12" t="s">
@@ -6881,10 +6881,10 @@
     </row>
     <row r="138" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C138" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G138,"/",REPT(" ","500")),500))</f>
@@ -6895,17 +6895,17 @@
         <v>CONFIG</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F138" s="8" t="str">
         <f aca="false">CONCATENATE(A138,"_",B138,".yml")</f>
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I138" s="11"/>
       <c r="J138" s="12" t="s">
@@ -6920,10 +6920,10 @@
     </row>
     <row r="139" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C139" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G139,"/",REPT(" ","500")),500))</f>
@@ -6942,10 +6942,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I139" s="11"/>
       <c r="J139" s="12" t="s">
@@ -6960,10 +6960,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C140" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G140,"/",REPT(" ","500")),500))</f>
@@ -6982,10 +6982,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I140" s="11"/>
       <c r="J140" s="12" t="s">
@@ -7000,10 +7000,10 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C141" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G141,"/",REPT(" ","500")),500))</f>
@@ -7022,13 +7022,13 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I141" s="13" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J141" s="12" t="s">
         <v>16</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="142" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C142" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G142,"/",REPT(" ","500")),500))</f>
@@ -7064,10 +7064,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I142" s="11"/>
       <c r="J142" s="12" t="s">
@@ -7082,10 +7082,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C143" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G143,"/",REPT(" ","500")),500))</f>
@@ -7104,10 +7104,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I143" s="11"/>
       <c r="J143" s="12" t="s">
@@ -7122,10 +7122,10 @@
     </row>
     <row r="144" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C144" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G144,"/",REPT(" ","500")),500))</f>
@@ -7144,10 +7144,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I144" s="11"/>
       <c r="J144" s="12" t="s">
@@ -7162,10 +7162,10 @@
     </row>
     <row r="145" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C145" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G145,"/",REPT(" ","500")),500))</f>
@@ -7184,10 +7184,10 @@
         <v>qos_scheduler.yml</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I145" s="11"/>
       <c r="J145" s="12" t="s">
@@ -7202,10 +7202,10 @@
     </row>
     <row r="146" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C146" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G146,"/",REPT(" ","500")),500))</f>
@@ -7224,10 +7224,10 @@
         <v>rp_community_def.yml</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I146" s="11"/>
       <c r="J146" s="12" t="s">
@@ -7242,10 +7242,10 @@
     </row>
     <row r="147" customFormat="false" ht="31.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C147" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G147,"/",REPT(" ","500")),500))</f>
@@ -7264,10 +7264,10 @@
         <v>rp_community_def.yml</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I147" s="11"/>
       <c r="J147" s="12" t="s">
@@ -7282,10 +7282,10 @@
     </row>
     <row r="148" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C148" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G148,"/",REPT(" ","500")),500))</f>
@@ -7304,10 +7304,10 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G148" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="H148" s="10" t="s">
         <v>257</v>
-      </c>
-      <c r="H148" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="I148" s="11"/>
       <c r="J148" s="12" t="s">
@@ -7322,10 +7322,10 @@
     </row>
     <row r="149" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C149" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G149,"/",REPT(" ","500")),500))</f>
@@ -7344,10 +7344,10 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I149" s="11"/>
       <c r="J149" s="12" t="s">
@@ -7362,10 +7362,10 @@
     </row>
     <row r="150" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C150" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G150,"/",REPT(" ","500")),500))</f>
@@ -7384,10 +7384,10 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I150" s="11"/>
       <c r="J150" s="12" t="s">
@@ -7402,10 +7402,10 @@
     </row>
     <row r="151" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C151" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G151,"/",REPT(" ","500")),500))</f>
@@ -7424,10 +7424,10 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I151" s="11"/>
       <c r="J151" s="12" t="s">
@@ -7449,10 +7449,10 @@
     </row>
     <row r="152" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C152" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G152,"/",REPT(" ","500")),500))</f>
@@ -7471,13 +7471,13 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J152" s="12" t="s">
         <v>16</v>
@@ -7498,10 +7498,10 @@
     </row>
     <row r="153" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C153" s="8" t="str">
         <f aca="false">TRIM(RIGHT(SUBSTITUTE(G153,"/",REPT(" ","500")),500))</f>
@@ -7520,13 +7520,13 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J153" s="12" t="s">
         <v>16</v>
@@ -7538,7 +7538,7 @@
         <v>17</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O153" s="0" t="n">
         <f aca="false">COUNTIF($L$2:$L$153,N153)</f>
@@ -7628,7 +7628,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="26" t="str">
         <f aca="false">MID(RIGHT(A2,15),FIND("/",RIGHT(A2,15))+1,LEN(RIGHT(A2,15))-FIND("/",RIGHT(A2,15)))</f>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
+++ b/AutomationFramework/params/SBI_params_test_ Almagro_Sept_2020_v1.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="272">
   <si>
     <t xml:space="preserve">TEST BLOCK</t>
   </si>
@@ -909,7 +909,13 @@
     <t xml:space="preserve">/routing-policy/policy-definitions/policy-definition/statements/statement/conditions/oc-bgp-pol:bgp-conditions/oc-bgp-pol:match-ext-community-set/oc-bgp-pol:config/oc-bgp-pol:ext-community-set</t>
   </si>
   <si>
-    <t xml:space="preserve">/routing-policy/policy-definitions/policy-definition/statements/statement/conditions/oc-bgp-pol:bgp-conditions/oc-bgp-pol:match-ext-community-set/oc-bgp-pol:config/oc-bgp-pol:match-set-options </t>
+    <t xml:space="preserve">oc-bgp-pol:match-set-options // oc-bgp-pol:ext-community-set </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_policy_def_match_set_options.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/routing-policy/policy-definitions/policy-definition/statements/statement/conditions/oc-bgp-pol:bgp-conditions/oc-bgp-pol:match-ext-community-set/oc-bgp-pol:config/oc-bgp-pol:match-set-options – /routing-policy/policy-definitions/policy-definition/statements/statement/conditions/oc-bgp-pol:bgp-conditions/oc-bgp-pol:match-ext-community-set/oc-bgp-pol:config/oc-bgp-pol:ext-community-set </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1337,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B45" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7447,37 +7453,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B152" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C152" s="8" t="str">
-        <f aca="false">TRIM(RIGHT(SUBSTITUTE(G152,"/",REPT(" ","500")),500))</f>
-        <v>oc-bgp-pol:match-set-options</v>
+      <c r="C152" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="D152" s="8" t="str">
         <f aca="false">IFERROR(IF(SEARCH("state/",G152),"STATE","CONFIG"),"CONFIG")</f>
         <v>CONFIG</v>
       </c>
-      <c r="E152" s="8" t="str">
-        <f aca="false">SUBSTITUTE(CONCATENATE(A152,"_",B152,"_",IFERROR(MID(C152,FIND(":",C152)+1,LEN(C152)-FIND(":",C152)),C152),".","xml"),"-","_")</f>
-        <v>rp_policy_def_match_set_options.xml</v>
+      <c r="E152" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="F152" s="8" t="str">
         <f aca="false">CONCATENATE(A152,"_",B152,".yml")</f>
         <v>rp_policy_def.yml</v>
       </c>
-      <c r="G152" s="9" t="s">
-        <v>264</v>
+      <c r="G152" s="0" t="s">
+        <v>266</v>
       </c>
       <c r="H152" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J152" s="12" t="s">
         <v>16</v>
@@ -7520,13 +7524,13 @@
         <v>rp_policy_def.yml</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H153" s="10" t="s">
         <v>257</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J153" s="12" t="s">
         <v>16</v>
@@ -7538,7 +7542,7 @@
         <v>17</v>
       </c>
       <c r="N153" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O153" s="0" t="n">
         <f aca="false">COUNTIF($L$2:$L$153,N153)</f>
@@ -7546,15 +7550,15 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="G2:G153">
+  <conditionalFormatting sqref="G153 G2:G151">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -7665,7 +7669,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
